--- a/LR3/table_1_5.xlsx
+++ b/LR3/table_1_5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB36C5E9-7D74-4509-9813-AD2F69BB3021}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F959AED-58D9-4021-9EE5-366F4E725AFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11535" yWindow="3750" windowWidth="13575" windowHeight="8805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11880" yWindow="4095" windowWidth="13575" windowHeight="8805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -508,9 +508,7 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -527,7 +525,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>

--- a/LR3/table_1_5.xlsx
+++ b/LR3/table_1_5.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797ADA62-699E-4F28-96FE-8DC9CEA06AE6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BBBD47-5EB1-4EC3-8FBC-4915BE485643}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t xml:space="preserve">№ квартиры </t>
   </si>
@@ -130,46 +130,49 @@
     <t>Хабк</t>
   </si>
   <si>
+    <t>Срок оплаты</t>
+  </si>
+  <si>
+    <t>Дата оплаты</t>
+  </si>
+  <si>
+    <t>Максимальный срок просрочки, дней</t>
+  </si>
+  <si>
+    <t>Кузин</t>
+  </si>
+  <si>
     <t>Куропаткин 1</t>
   </si>
   <si>
-    <t>Куропаткин 2</t>
-  </si>
-  <si>
-    <t>Площадь,кв.м</t>
-  </si>
-  <si>
-    <t>Тариф,руб/кв.м</t>
-  </si>
-  <si>
-    <t>Сумма,руб.</t>
-  </si>
-  <si>
-    <t>Срок оплаты</t>
-  </si>
-  <si>
-    <t>Дата оплаты</t>
-  </si>
-  <si>
-    <t>Просрочка</t>
-  </si>
-  <si>
-    <t>Пени за 1 день</t>
-  </si>
-  <si>
-    <t>Штраф,пени</t>
-  </si>
-  <si>
-    <t>Итого,руб.</t>
-  </si>
-  <si>
-    <t>Общая сумма,руб.</t>
-  </si>
-  <si>
-    <t>Средняя площадь,кв.м</t>
-  </si>
-  <si>
-    <t>Максимальный срок просрочки, дней</t>
+    <t>Общая сумма, руб.</t>
+  </si>
+  <si>
+    <t>Средняя площадь, кв.м</t>
+  </si>
+  <si>
+    <t>Площадь, кв.м</t>
+  </si>
+  <si>
+    <t>Тариф, руб./кв.м</t>
+  </si>
+  <si>
+    <t>Сумма, руб.</t>
+  </si>
+  <si>
+    <t>Просрочка, дней</t>
+  </si>
+  <si>
+    <t>Штраф, руб.</t>
+  </si>
+  <si>
+    <t>Пени за 1 день, руб.</t>
+  </si>
+  <si>
+    <t>Итого, руб.</t>
+  </si>
+  <si>
+    <t>Максимальная сумма, руб.</t>
   </si>
 </sst>
 </file>
@@ -222,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -234,18 +237,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -526,25 +533,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.33203125" style="1" customWidth="1"/>
     <col min="14" max="14" width="14" style="1" customWidth="1"/>
@@ -552,7 +559,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="2">
+      <c r="A1" s="11">
         <v>5</v>
       </c>
     </row>
@@ -563,1592 +570,1741 @@
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="F2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="6"/>
+      <c r="I2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="9">
         <v>70</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="9">
         <f>$A$1*1.1</f>
         <v>5.5</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="9">
         <f>C3*D3</f>
         <v>385</v>
       </c>
-      <c r="F3" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="7">
+      <c r="F3" s="10">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="10">
         <v>44805</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="9">
         <f>IF(G3&lt;$F$3,0,G3-$F$3)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="6">
-        <v>10</v>
-      </c>
-      <c r="J3" s="6">
+      <c r="I3" s="9">
+        <v>10</v>
+      </c>
+      <c r="J3" s="9">
         <f>I3*H3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="9">
         <f>E3+J3</f>
         <v>385</v>
       </c>
-      <c r="L3" s="6"/>
+      <c r="L3" s="5"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
+        <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="9">
         <f>C3-0.5</f>
         <v>69.5</v>
       </c>
-      <c r="D4" s="6">
-        <f t="shared" ref="D4:D38" si="0">$A$1*1.1</f>
-        <v>5.5</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="D4" s="9">
+        <f t="shared" ref="D4:D34" si="0">$A$1*1.1</f>
+        <v>5.5</v>
+      </c>
+      <c r="E4" s="9">
         <f>C4*D4</f>
         <v>382.25</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7">
+      <c r="F4" s="10">
+        <f>$F$3</f>
+        <v>44813</v>
+      </c>
+      <c r="G4" s="10">
         <f>G3+1</f>
         <v>44806</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="9">
         <f>IF(G4&lt;$F$3,0,G4-$F$3)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="6">
-        <v>10</v>
-      </c>
-      <c r="J4" s="6">
+      <c r="I4" s="9">
+        <v>10</v>
+      </c>
+      <c r="J4" s="9">
         <f>I4*H4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="9">
         <f t="shared" ref="K4:K38" si="1">E4+J4</f>
         <v>382.25</v>
       </c>
-      <c r="L4" s="6"/>
+      <c r="L4" s="5"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
+        <f t="shared" ref="A5:A38" si="2">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="6">
-        <f t="shared" ref="C5:C38" si="2">C4-0.5</f>
+      <c r="C5" s="9">
+        <f t="shared" ref="C5:C38" si="3">C4-0.5</f>
         <v>69</v>
       </c>
-      <c r="D5" s="6">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="E5" s="6">
-        <f t="shared" ref="E5:E38" si="3">C5*D5</f>
+      <c r="D5" s="9">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="E5" s="9">
+        <f t="shared" ref="E5:E38" si="4">C5*D5</f>
         <v>379.5</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7">
-        <f t="shared" ref="G5:G38" si="4">G4+1</f>
+      <c r="F5" s="10">
+        <f t="shared" ref="F5:F38" si="5">$F$3</f>
+        <v>44813</v>
+      </c>
+      <c r="G5" s="10">
+        <f t="shared" ref="G5:G38" si="6">G4+1</f>
         <v>44807</v>
       </c>
-      <c r="H5" s="6">
-        <f t="shared" ref="H5:H38" si="5">IF(G5&lt;$F$3,0,G5-$F$3)</f>
+      <c r="H5" s="9">
+        <f t="shared" ref="H5:H38" si="7">IF(G5&lt;$F$3,0,G5-$F$3)</f>
         <v>0</v>
       </c>
-      <c r="I5" s="6">
-        <v>10</v>
-      </c>
-      <c r="J5" s="6">
-        <f t="shared" ref="J5:J38" si="6">I5*H5</f>
+      <c r="I5" s="9">
+        <v>10</v>
+      </c>
+      <c r="J5" s="9">
+        <f t="shared" ref="J5:J38" si="8">I5*H5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="9">
         <f t="shared" si="1"/>
         <v>379.5</v>
       </c>
-      <c r="L5" s="6"/>
+      <c r="L5" s="5"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="6">
-        <f t="shared" si="2"/>
+      <c r="C6" s="9">
+        <f t="shared" si="3"/>
         <v>68.5</v>
       </c>
-      <c r="D6" s="6">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="E6" s="6">
+      <c r="D6" s="9">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="E6" s="9">
         <f>C6*D6</f>
         <v>376.75</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7">
-        <f t="shared" si="4"/>
+      <c r="F6" s="10">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G6" s="10">
+        <f t="shared" si="6"/>
         <v>44808</v>
       </c>
-      <c r="H6" s="6">
-        <f t="shared" si="5"/>
+      <c r="H6" s="9">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I6" s="6">
-        <v>10</v>
-      </c>
-      <c r="J6" s="6">
-        <f t="shared" si="6"/>
+      <c r="I6" s="9">
+        <v>10</v>
+      </c>
+      <c r="J6" s="9">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="9">
         <f t="shared" si="1"/>
         <v>376.75</v>
       </c>
-      <c r="L6" s="6"/>
+      <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="6">
-        <f t="shared" si="2"/>
+      <c r="C7" s="9">
+        <f t="shared" si="3"/>
         <v>68</v>
       </c>
-      <c r="D7" s="6">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="E7" s="6">
-        <f t="shared" si="3"/>
+      <c r="D7" s="9">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="E7" s="9">
+        <f t="shared" si="4"/>
         <v>374</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7">
-        <f t="shared" si="4"/>
+      <c r="F7" s="10">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G7" s="10">
+        <f t="shared" si="6"/>
         <v>44809</v>
       </c>
-      <c r="H7" s="6">
-        <f t="shared" si="5"/>
+      <c r="H7" s="9">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I7" s="6">
-        <v>10</v>
-      </c>
-      <c r="J7" s="6">
-        <f t="shared" si="6"/>
+      <c r="I7" s="9">
+        <v>10</v>
+      </c>
+      <c r="J7" s="9">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="9">
         <f t="shared" si="1"/>
         <v>374</v>
       </c>
-      <c r="L7" s="6"/>
+      <c r="L7" s="5"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="6">
-        <f t="shared" si="2"/>
+      <c r="C8" s="9">
+        <f t="shared" si="3"/>
         <v>67.5</v>
       </c>
-      <c r="D8" s="6">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="E8" s="6">
-        <f t="shared" si="3"/>
+      <c r="D8" s="9">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="E8" s="9">
+        <f t="shared" si="4"/>
         <v>371.25</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7">
-        <f t="shared" si="4"/>
+      <c r="F8" s="10">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G8" s="10">
+        <f t="shared" si="6"/>
         <v>44810</v>
       </c>
-      <c r="H8" s="6">
-        <f t="shared" si="5"/>
+      <c r="H8" s="9">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I8" s="6">
-        <v>10</v>
-      </c>
-      <c r="J8" s="6">
-        <f t="shared" si="6"/>
+      <c r="I8" s="9">
+        <v>10</v>
+      </c>
+      <c r="J8" s="9">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="9">
         <f t="shared" si="1"/>
         <v>371.25</v>
       </c>
-      <c r="L8" s="6"/>
+      <c r="L8" s="5"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="6">
-        <f t="shared" si="2"/>
+      <c r="C9" s="9">
+        <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="D9" s="6">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="E9" s="6">
-        <f t="shared" si="3"/>
+      <c r="D9" s="9">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="E9" s="9">
+        <f t="shared" si="4"/>
         <v>368.5</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7">
-        <f t="shared" si="4"/>
+      <c r="F9" s="10">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G9" s="10">
+        <f t="shared" si="6"/>
         <v>44811</v>
       </c>
-      <c r="H9" s="6">
-        <f t="shared" si="5"/>
+      <c r="H9" s="9">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I9" s="6">
-        <v>10</v>
-      </c>
-      <c r="J9" s="6">
-        <f t="shared" si="6"/>
+      <c r="I9" s="9">
+        <v>10</v>
+      </c>
+      <c r="J9" s="9">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="9">
         <f t="shared" si="1"/>
         <v>368.5</v>
       </c>
-      <c r="L9" s="6"/>
+      <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="6">
-        <f t="shared" si="2"/>
+      <c r="C10" s="9">
+        <f t="shared" si="3"/>
         <v>66.5</v>
       </c>
-      <c r="D10" s="6">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="E10" s="6">
-        <f t="shared" si="3"/>
+      <c r="D10" s="9">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="E10" s="9">
+        <f t="shared" si="4"/>
         <v>365.75</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7">
-        <f t="shared" si="4"/>
+      <c r="F10" s="10">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G10" s="10">
+        <f t="shared" si="6"/>
         <v>44812</v>
       </c>
-      <c r="H10" s="6">
-        <f t="shared" si="5"/>
+      <c r="H10" s="9">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I10" s="6">
-        <v>10</v>
-      </c>
-      <c r="J10" s="6">
-        <f t="shared" si="6"/>
+      <c r="I10" s="9">
+        <v>10</v>
+      </c>
+      <c r="J10" s="9">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="9">
         <f t="shared" si="1"/>
         <v>365.75</v>
       </c>
-      <c r="L10" s="6"/>
+      <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="6">
-        <f t="shared" si="2"/>
+      <c r="C11" s="9">
+        <f t="shared" si="3"/>
         <v>66</v>
       </c>
-      <c r="D11" s="6">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="E11" s="6">
-        <f t="shared" si="3"/>
+      <c r="D11" s="9">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="E11" s="9">
+        <f t="shared" si="4"/>
         <v>363</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7">
-        <f t="shared" si="4"/>
-        <v>44813</v>
-      </c>
-      <c r="H11" s="6">
-        <f t="shared" si="5"/>
+      <c r="F11" s="10">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G11" s="10">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="H11" s="9">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I11" s="6">
-        <v>10</v>
-      </c>
-      <c r="J11" s="6">
-        <f t="shared" si="6"/>
+      <c r="I11" s="9">
+        <v>10</v>
+      </c>
+      <c r="J11" s="9">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="9">
         <f t="shared" si="1"/>
         <v>363</v>
       </c>
-      <c r="L11" s="6"/>
+      <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="6">
-        <f t="shared" si="2"/>
+      <c r="A12" s="3">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="9">
+        <f t="shared" si="3"/>
         <v>65.5</v>
       </c>
-      <c r="D12" s="6">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="E12" s="6">
-        <f t="shared" si="3"/>
+      <c r="D12" s="9">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="E12" s="9">
+        <f t="shared" si="4"/>
         <v>360.25</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="7">
-        <f t="shared" si="4"/>
+      <c r="F12" s="10">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G12" s="10">
+        <f t="shared" si="6"/>
         <v>44814</v>
       </c>
-      <c r="H12" s="6">
-        <f t="shared" si="5"/>
+      <c r="H12" s="9">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="I12" s="6">
-        <v>10</v>
-      </c>
-      <c r="J12" s="6">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="K12" s="6">
+      <c r="I12" s="9">
+        <v>10</v>
+      </c>
+      <c r="J12" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="K12" s="9">
         <f t="shared" si="1"/>
         <v>370.25</v>
       </c>
-      <c r="L12" s="6"/>
+      <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="6">
-        <f t="shared" si="2"/>
+      <c r="C13" s="9">
+        <f t="shared" si="3"/>
         <v>65</v>
       </c>
-      <c r="D13" s="6">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="E13" s="6">
-        <f t="shared" si="3"/>
+      <c r="D13" s="9">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="E13" s="9">
+        <f t="shared" si="4"/>
         <v>357.5</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="7">
-        <f t="shared" si="4"/>
+      <c r="F13" s="10">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G13" s="10">
+        <f t="shared" si="6"/>
         <v>44815</v>
       </c>
-      <c r="H13" s="6">
-        <f t="shared" si="5"/>
+      <c r="H13" s="9">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="I13" s="6">
-        <v>10</v>
-      </c>
-      <c r="J13" s="6">
-        <f t="shared" si="6"/>
+      <c r="I13" s="9">
+        <v>10</v>
+      </c>
+      <c r="J13" s="9">
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="9">
         <f t="shared" si="1"/>
         <v>377.5</v>
       </c>
-      <c r="L13" s="6"/>
+      <c r="L13" s="5"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="6">
-        <f t="shared" si="2"/>
+      <c r="C14" s="9">
+        <f t="shared" si="3"/>
         <v>64.5</v>
       </c>
-      <c r="D14" s="6">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="E14" s="6">
-        <f t="shared" si="3"/>
+      <c r="D14" s="9">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="E14" s="9">
+        <f t="shared" si="4"/>
         <v>354.75</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="7">
-        <f t="shared" si="4"/>
+      <c r="F14" s="10">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G14" s="10">
+        <f t="shared" si="6"/>
         <v>44816</v>
       </c>
-      <c r="H14" s="6">
-        <f t="shared" si="5"/>
+      <c r="H14" s="9">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="I14" s="6">
-        <v>10</v>
-      </c>
-      <c r="J14" s="6">
-        <f t="shared" si="6"/>
+      <c r="I14" s="9">
+        <v>10</v>
+      </c>
+      <c r="J14" s="9">
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="9">
         <f t="shared" si="1"/>
         <v>384.75</v>
       </c>
-      <c r="L14" s="6"/>
+      <c r="L14" s="5"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="6">
-        <f t="shared" si="2"/>
+      <c r="C15" s="9">
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
-      <c r="D15" s="6">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="E15" s="6">
-        <f t="shared" si="3"/>
+      <c r="D15" s="9">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="E15" s="9">
+        <f t="shared" si="4"/>
         <v>352</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="7">
-        <f t="shared" si="4"/>
+      <c r="F15" s="10">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G15" s="10">
+        <f t="shared" si="6"/>
         <v>44817</v>
       </c>
-      <c r="H15" s="6">
-        <f t="shared" si="5"/>
+      <c r="H15" s="9">
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="I15" s="6">
-        <v>10</v>
-      </c>
-      <c r="J15" s="6">
-        <f t="shared" si="6"/>
+      <c r="I15" s="9">
+        <v>10</v>
+      </c>
+      <c r="J15" s="9">
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="9">
         <f t="shared" si="1"/>
         <v>392</v>
       </c>
-      <c r="L15" s="6"/>
+      <c r="L15" s="5"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="6">
-        <f t="shared" si="2"/>
+      <c r="C16" s="9">
+        <f t="shared" si="3"/>
         <v>63.5</v>
       </c>
-      <c r="D16" s="6">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="E16" s="6">
-        <f t="shared" si="3"/>
+      <c r="D16" s="9">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="E16" s="9">
+        <f t="shared" si="4"/>
         <v>349.25</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="7">
-        <f t="shared" si="4"/>
+      <c r="F16" s="10">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G16" s="10">
+        <f t="shared" si="6"/>
         <v>44818</v>
       </c>
-      <c r="H16" s="6">
-        <f t="shared" si="5"/>
+      <c r="H16" s="9">
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="I16" s="6">
-        <v>10</v>
-      </c>
-      <c r="J16" s="6">
-        <f t="shared" si="6"/>
+      <c r="I16" s="9">
+        <v>10</v>
+      </c>
+      <c r="J16" s="9">
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="9">
         <f t="shared" si="1"/>
         <v>399.25</v>
       </c>
-      <c r="L16" s="6"/>
+      <c r="L16" s="5"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="6">
-        <f t="shared" si="2"/>
+      <c r="C17" s="9">
+        <f t="shared" si="3"/>
         <v>63</v>
       </c>
-      <c r="D17" s="6">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="E17" s="6">
-        <f t="shared" si="3"/>
+      <c r="D17" s="9">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="E17" s="9">
+        <f t="shared" si="4"/>
         <v>346.5</v>
       </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="7">
-        <f t="shared" si="4"/>
+      <c r="F17" s="10">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G17" s="10">
+        <f t="shared" si="6"/>
         <v>44819</v>
       </c>
-      <c r="H17" s="6">
-        <f t="shared" si="5"/>
+      <c r="H17" s="9">
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="I17" s="6">
-        <v>10</v>
-      </c>
-      <c r="J17" s="6">
-        <f t="shared" si="6"/>
+      <c r="I17" s="9">
+        <v>10</v>
+      </c>
+      <c r="J17" s="9">
+        <f t="shared" si="8"/>
         <v>60</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="9">
         <f t="shared" si="1"/>
         <v>406.5</v>
       </c>
-      <c r="L17" s="6"/>
+      <c r="L17" s="5"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="6">
-        <f t="shared" si="2"/>
+      <c r="C18" s="9">
+        <f t="shared" si="3"/>
         <v>62.5</v>
       </c>
-      <c r="D18" s="6">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="E18" s="6">
-        <f t="shared" si="3"/>
+      <c r="D18" s="9">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="E18" s="9">
+        <f t="shared" si="4"/>
         <v>343.75</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="7">
-        <f t="shared" si="4"/>
+      <c r="F18" s="10">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G18" s="10">
+        <f t="shared" si="6"/>
         <v>44820</v>
       </c>
-      <c r="H18" s="6">
-        <f t="shared" si="5"/>
+      <c r="H18" s="9">
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="I18" s="6">
-        <v>10</v>
-      </c>
-      <c r="J18" s="6">
-        <f t="shared" si="6"/>
+      <c r="I18" s="9">
+        <v>10</v>
+      </c>
+      <c r="J18" s="9">
+        <f t="shared" si="8"/>
         <v>70</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="9">
         <f t="shared" si="1"/>
         <v>413.75</v>
       </c>
-      <c r="L18" s="6"/>
+      <c r="L18" s="5"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="6">
-        <f t="shared" si="2"/>
+      <c r="C19" s="9">
+        <f t="shared" si="3"/>
         <v>62</v>
       </c>
-      <c r="D19" s="6">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="E19" s="6">
-        <f t="shared" si="3"/>
+      <c r="D19" s="9">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="E19" s="9">
+        <f t="shared" si="4"/>
         <v>341</v>
       </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="7">
-        <f t="shared" si="4"/>
+      <c r="F19" s="10">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G19" s="10">
+        <f t="shared" si="6"/>
         <v>44821</v>
       </c>
-      <c r="H19" s="6">
-        <f t="shared" si="5"/>
+      <c r="H19" s="9">
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="I19" s="6">
-        <v>10</v>
-      </c>
-      <c r="J19" s="6">
-        <f t="shared" si="6"/>
+      <c r="I19" s="9">
+        <v>10</v>
+      </c>
+      <c r="J19" s="9">
+        <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="9">
         <f t="shared" si="1"/>
         <v>421</v>
       </c>
-      <c r="L19" s="6"/>
+      <c r="L19" s="5"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="6">
-        <f t="shared" si="2"/>
+      <c r="C20" s="9">
+        <f t="shared" si="3"/>
         <v>61.5</v>
       </c>
-      <c r="D20" s="6">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="E20" s="6">
-        <f t="shared" si="3"/>
+      <c r="D20" s="9">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="E20" s="9">
+        <f t="shared" si="4"/>
         <v>338.25</v>
       </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="7">
-        <f t="shared" si="4"/>
+      <c r="F20" s="10">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G20" s="10">
+        <f t="shared" si="6"/>
         <v>44822</v>
       </c>
-      <c r="H20" s="6">
-        <f t="shared" si="5"/>
+      <c r="H20" s="9">
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="I20" s="6">
-        <v>10</v>
-      </c>
-      <c r="J20" s="6">
-        <f t="shared" si="6"/>
+      <c r="I20" s="9">
+        <v>10</v>
+      </c>
+      <c r="J20" s="9">
+        <f t="shared" si="8"/>
         <v>90</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="9">
         <f t="shared" si="1"/>
         <v>428.25</v>
       </c>
-      <c r="L20" s="6"/>
+      <c r="L20" s="5"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="6">
-        <f t="shared" si="2"/>
+      <c r="C21" s="9">
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
-      <c r="D21" s="6">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="E21" s="6">
-        <f t="shared" si="3"/>
+      <c r="D21" s="9">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="E21" s="9">
+        <f t="shared" si="4"/>
         <v>335.5</v>
       </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="7">
-        <f t="shared" si="4"/>
+      <c r="F21" s="10">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G21" s="10">
+        <f t="shared" si="6"/>
         <v>44823</v>
       </c>
-      <c r="H21" s="6">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="I21" s="6">
-        <v>10</v>
-      </c>
-      <c r="J21" s="6">
-        <f t="shared" si="6"/>
+      <c r="H21" s="9">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="I21" s="9">
+        <v>10</v>
+      </c>
+      <c r="J21" s="9">
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="9">
         <f t="shared" si="1"/>
         <v>435.5</v>
       </c>
-      <c r="L21" s="6"/>
+      <c r="L21" s="5"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="6">
-        <f t="shared" si="2"/>
+      <c r="C22" s="9">
+        <f t="shared" si="3"/>
         <v>60.5</v>
       </c>
-      <c r="D22" s="6">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="E22" s="6">
-        <f t="shared" si="3"/>
+      <c r="D22" s="9">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="E22" s="9">
+        <f t="shared" si="4"/>
         <v>332.75</v>
       </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="7">
-        <f t="shared" si="4"/>
+      <c r="F22" s="10">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G22" s="10">
+        <f t="shared" si="6"/>
         <v>44824</v>
       </c>
-      <c r="H22" s="6">
-        <f t="shared" si="5"/>
+      <c r="H22" s="9">
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
-      <c r="I22" s="6">
-        <v>10</v>
-      </c>
-      <c r="J22" s="6">
-        <f t="shared" si="6"/>
+      <c r="I22" s="9">
+        <v>10</v>
+      </c>
+      <c r="J22" s="9">
+        <f t="shared" si="8"/>
         <v>110</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="9">
         <f t="shared" si="1"/>
         <v>442.75</v>
       </c>
-      <c r="L22" s="6"/>
+      <c r="L22" s="5"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="6">
-        <f t="shared" si="2"/>
+      <c r="C23" s="9">
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="D23" s="6">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="E23" s="6">
-        <f t="shared" si="3"/>
+      <c r="D23" s="9">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="E23" s="9">
+        <f t="shared" si="4"/>
         <v>330</v>
       </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="7">
-        <f t="shared" si="4"/>
+      <c r="F23" s="10">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G23" s="10">
+        <f t="shared" si="6"/>
         <v>44825</v>
       </c>
-      <c r="H23" s="6">
-        <f t="shared" si="5"/>
+      <c r="H23" s="9">
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="I23" s="6">
-        <v>10</v>
-      </c>
-      <c r="J23" s="6">
-        <f t="shared" si="6"/>
+      <c r="I23" s="9">
+        <v>10</v>
+      </c>
+      <c r="J23" s="9">
+        <f t="shared" si="8"/>
         <v>120</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="9">
         <f t="shared" si="1"/>
         <v>450</v>
       </c>
-      <c r="L23" s="6"/>
+      <c r="L23" s="5"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="6">
-        <f t="shared" si="2"/>
+      <c r="C24" s="9">
+        <f t="shared" si="3"/>
         <v>59.5</v>
       </c>
-      <c r="D24" s="6">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="E24" s="6">
-        <f t="shared" si="3"/>
+      <c r="D24" s="9">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="E24" s="9">
+        <f t="shared" si="4"/>
         <v>327.25</v>
       </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="7">
-        <f t="shared" si="4"/>
+      <c r="F24" s="10">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G24" s="10">
+        <f t="shared" si="6"/>
         <v>44826</v>
       </c>
-      <c r="H24" s="6">
-        <f t="shared" si="5"/>
+      <c r="H24" s="9">
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="I24" s="6">
-        <v>10</v>
-      </c>
-      <c r="J24" s="6">
-        <f t="shared" si="6"/>
+      <c r="I24" s="9">
+        <v>10</v>
+      </c>
+      <c r="J24" s="9">
+        <f t="shared" si="8"/>
         <v>130</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="9">
         <f t="shared" si="1"/>
         <v>457.25</v>
       </c>
-      <c r="L24" s="6"/>
+      <c r="L24" s="5"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="6">
-        <f t="shared" si="2"/>
+      <c r="C25" s="9">
+        <f t="shared" si="3"/>
         <v>59</v>
       </c>
-      <c r="D25" s="6">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="E25" s="6">
-        <f t="shared" si="3"/>
+      <c r="D25" s="9">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="E25" s="9">
+        <f t="shared" si="4"/>
         <v>324.5</v>
       </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="7">
-        <f t="shared" si="4"/>
+      <c r="F25" s="10">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G25" s="10">
+        <f t="shared" si="6"/>
         <v>44827</v>
       </c>
-      <c r="H25" s="6">
-        <f t="shared" si="5"/>
+      <c r="H25" s="9">
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="I25" s="6">
-        <v>10</v>
-      </c>
-      <c r="J25" s="6">
-        <f t="shared" si="6"/>
+      <c r="I25" s="9">
+        <v>10</v>
+      </c>
+      <c r="J25" s="9">
+        <f t="shared" si="8"/>
         <v>140</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="9">
         <f t="shared" si="1"/>
         <v>464.5</v>
       </c>
-      <c r="L25" s="6"/>
+      <c r="L25" s="5"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="6">
-        <f t="shared" si="2"/>
+      <c r="C26" s="9">
+        <f t="shared" si="3"/>
         <v>58.5</v>
       </c>
-      <c r="D26" s="6">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="E26" s="6">
-        <f t="shared" si="3"/>
+      <c r="D26" s="9">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="E26" s="9">
+        <f t="shared" si="4"/>
         <v>321.75</v>
       </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="7">
-        <f t="shared" si="4"/>
+      <c r="F26" s="10">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G26" s="10">
+        <f t="shared" si="6"/>
         <v>44828</v>
       </c>
-      <c r="H26" s="6">
-        <f t="shared" si="5"/>
+      <c r="H26" s="9">
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="I26" s="6">
-        <v>10</v>
-      </c>
-      <c r="J26" s="6">
-        <f t="shared" si="6"/>
+      <c r="I26" s="9">
+        <v>10</v>
+      </c>
+      <c r="J26" s="9">
+        <f t="shared" si="8"/>
         <v>150</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="9">
         <f t="shared" si="1"/>
         <v>471.75</v>
       </c>
-      <c r="L26" s="6"/>
+      <c r="L26" s="5"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="6">
-        <f t="shared" si="2"/>
+      <c r="C27" s="9">
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
-      <c r="D27" s="6">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="E27" s="6">
-        <f t="shared" si="3"/>
+      <c r="D27" s="9">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="E27" s="9">
+        <f t="shared" si="4"/>
         <v>319</v>
       </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="7">
-        <f t="shared" si="4"/>
+      <c r="F27" s="10">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G27" s="10">
+        <f t="shared" si="6"/>
         <v>44829</v>
       </c>
-      <c r="H27" s="6">
-        <f t="shared" si="5"/>
+      <c r="H27" s="9">
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
-      <c r="I27" s="6">
-        <v>10</v>
-      </c>
-      <c r="J27" s="6">
-        <f t="shared" si="6"/>
+      <c r="I27" s="9">
+        <v>10</v>
+      </c>
+      <c r="J27" s="9">
+        <f t="shared" si="8"/>
         <v>160</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K27" s="9">
         <f t="shared" si="1"/>
         <v>479</v>
       </c>
-      <c r="L27" s="6"/>
+      <c r="L27" s="5"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="6">
-        <f t="shared" si="2"/>
+      <c r="C28" s="9">
+        <f t="shared" si="3"/>
         <v>57.5</v>
       </c>
-      <c r="D28" s="6">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="E28" s="6">
-        <f t="shared" si="3"/>
+      <c r="D28" s="9">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="E28" s="9">
+        <f t="shared" si="4"/>
         <v>316.25</v>
       </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="7">
-        <f t="shared" si="4"/>
+      <c r="F28" s="10">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G28" s="10">
+        <f t="shared" si="6"/>
         <v>44830</v>
       </c>
-      <c r="H28" s="6">
-        <f t="shared" si="5"/>
+      <c r="H28" s="9">
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
-      <c r="I28" s="6">
-        <v>10</v>
-      </c>
-      <c r="J28" s="6">
-        <f t="shared" si="6"/>
+      <c r="I28" s="9">
+        <v>10</v>
+      </c>
+      <c r="J28" s="9">
+        <f t="shared" si="8"/>
         <v>170</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K28" s="9">
         <f t="shared" si="1"/>
         <v>486.25</v>
       </c>
-      <c r="L28" s="6"/>
+      <c r="L28" s="5"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="6">
-        <f t="shared" si="2"/>
+      <c r="C29" s="9">
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
-      <c r="D29" s="6">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="E29" s="6">
-        <f t="shared" si="3"/>
+      <c r="D29" s="9">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="E29" s="9">
+        <f t="shared" si="4"/>
         <v>313.5</v>
       </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="7">
-        <f t="shared" si="4"/>
+      <c r="F29" s="10">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G29" s="10">
+        <f t="shared" si="6"/>
         <v>44831</v>
       </c>
-      <c r="H29" s="6">
-        <f t="shared" si="5"/>
+      <c r="H29" s="9">
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
-      <c r="I29" s="6">
-        <v>10</v>
-      </c>
-      <c r="J29" s="6">
-        <f t="shared" si="6"/>
+      <c r="I29" s="9">
+        <v>10</v>
+      </c>
+      <c r="J29" s="9">
+        <f t="shared" si="8"/>
         <v>180</v>
       </c>
-      <c r="K29" s="6">
+      <c r="K29" s="9">
         <f t="shared" si="1"/>
         <v>493.5</v>
       </c>
-      <c r="L29" s="6"/>
+      <c r="L29" s="5"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="4">
+      <c r="A30" s="3">
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="6">
-        <f t="shared" si="2"/>
+      <c r="C30" s="9">
+        <f t="shared" si="3"/>
         <v>56.5</v>
       </c>
-      <c r="D30" s="6">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="E30" s="6">
-        <f t="shared" si="3"/>
+      <c r="D30" s="9">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="E30" s="9">
+        <f t="shared" si="4"/>
         <v>310.75</v>
       </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="7">
-        <f t="shared" si="4"/>
+      <c r="F30" s="10">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G30" s="10">
+        <f t="shared" si="6"/>
         <v>44832</v>
       </c>
-      <c r="H30" s="6">
-        <f t="shared" si="5"/>
+      <c r="H30" s="9">
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
-      <c r="I30" s="6">
-        <v>10</v>
-      </c>
-      <c r="J30" s="6">
-        <f t="shared" si="6"/>
+      <c r="I30" s="9">
+        <v>10</v>
+      </c>
+      <c r="J30" s="9">
+        <f t="shared" si="8"/>
         <v>190</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K30" s="9">
         <f t="shared" si="1"/>
         <v>500.75</v>
       </c>
-      <c r="L30" s="6"/>
+      <c r="L30" s="5"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="4">
+      <c r="A31" s="3">
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="6">
-        <f t="shared" si="2"/>
+      <c r="C31" s="9">
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
-      <c r="D31" s="6">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="E31" s="6">
-        <f t="shared" si="3"/>
+      <c r="D31" s="9">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="E31" s="9">
+        <f t="shared" si="4"/>
         <v>308</v>
       </c>
-      <c r="F31" s="6"/>
-      <c r="G31" s="7">
-        <f t="shared" si="4"/>
+      <c r="F31" s="10">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G31" s="10">
+        <f t="shared" si="6"/>
         <v>44833</v>
       </c>
-      <c r="H31" s="6">
-        <f t="shared" si="5"/>
+      <c r="H31" s="9">
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="I31" s="6">
-        <v>10</v>
-      </c>
-      <c r="J31" s="6">
-        <f t="shared" si="6"/>
+      <c r="I31" s="9">
+        <v>10</v>
+      </c>
+      <c r="J31" s="9">
+        <f t="shared" si="8"/>
         <v>200</v>
       </c>
-      <c r="K31" s="6">
+      <c r="K31" s="9">
         <f t="shared" si="1"/>
         <v>508</v>
       </c>
-      <c r="L31" s="6"/>
+      <c r="L31" s="5"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="4">
+      <c r="A32" s="3">
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="6">
-        <f t="shared" si="2"/>
+      <c r="C32" s="9">
+        <f t="shared" si="3"/>
         <v>55.5</v>
       </c>
-      <c r="D32" s="6">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="E32" s="6">
-        <f t="shared" si="3"/>
+      <c r="D32" s="9">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="E32" s="9">
+        <f t="shared" si="4"/>
         <v>305.25</v>
       </c>
-      <c r="F32" s="6"/>
-      <c r="G32" s="7">
-        <f t="shared" si="4"/>
+      <c r="F32" s="10">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G32" s="10">
+        <f t="shared" si="6"/>
         <v>44834</v>
       </c>
-      <c r="H32" s="6">
-        <f t="shared" si="5"/>
+      <c r="H32" s="9">
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
-      <c r="I32" s="6">
-        <v>10</v>
-      </c>
-      <c r="J32" s="6">
-        <f t="shared" si="6"/>
+      <c r="I32" s="9">
+        <v>10</v>
+      </c>
+      <c r="J32" s="9">
+        <f t="shared" si="8"/>
         <v>210</v>
       </c>
-      <c r="K32" s="6">
+      <c r="K32" s="9">
         <f t="shared" si="1"/>
         <v>515.25</v>
       </c>
-      <c r="L32" s="6"/>
+      <c r="L32" s="5"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="4">
+      <c r="A33" s="3">
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="6">
-        <f t="shared" si="2"/>
+      <c r="C33" s="9">
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
-      <c r="D33" s="6">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="E33" s="6">
-        <f t="shared" si="3"/>
+      <c r="D33" s="9">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="E33" s="9">
+        <f t="shared" si="4"/>
         <v>302.5</v>
       </c>
-      <c r="F33" s="6"/>
-      <c r="G33" s="7">
-        <f t="shared" si="4"/>
+      <c r="F33" s="10">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G33" s="10">
+        <f t="shared" si="6"/>
         <v>44835</v>
       </c>
-      <c r="H33" s="6">
-        <f t="shared" si="5"/>
+      <c r="H33" s="9">
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
-      <c r="I33" s="6">
-        <v>10</v>
-      </c>
-      <c r="J33" s="6">
-        <f t="shared" si="6"/>
+      <c r="I33" s="9">
+        <v>10</v>
+      </c>
+      <c r="J33" s="9">
+        <f t="shared" si="8"/>
         <v>220</v>
       </c>
-      <c r="K33" s="6">
+      <c r="K33" s="9">
         <f t="shared" si="1"/>
         <v>522.5</v>
       </c>
-      <c r="L33" s="6"/>
+      <c r="L33" s="5"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="4">
+      <c r="A34" s="3">
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="6">
-        <f t="shared" si="2"/>
+      <c r="C34" s="9">
+        <f t="shared" si="3"/>
         <v>54.5</v>
       </c>
-      <c r="D34" s="6">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="E34" s="6">
-        <f t="shared" si="3"/>
+      <c r="D34" s="9">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="E34" s="9">
+        <f t="shared" si="4"/>
         <v>299.75</v>
       </c>
-      <c r="F34" s="6"/>
-      <c r="G34" s="7">
-        <f t="shared" si="4"/>
+      <c r="F34" s="10">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G34" s="10">
+        <f t="shared" si="6"/>
         <v>44836</v>
       </c>
-      <c r="H34" s="6">
-        <f t="shared" si="5"/>
+      <c r="H34" s="9">
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
-      <c r="I34" s="6">
-        <v>10</v>
-      </c>
-      <c r="J34" s="6">
-        <f t="shared" si="6"/>
+      <c r="I34" s="9">
+        <v>10</v>
+      </c>
+      <c r="J34" s="9">
+        <f t="shared" si="8"/>
         <v>230</v>
       </c>
-      <c r="K34" s="6">
+      <c r="K34" s="9">
         <f t="shared" si="1"/>
         <v>529.75</v>
       </c>
-      <c r="L34" s="6"/>
+      <c r="L34" s="5"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="4">
+      <c r="A35" s="3">
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="6">
-        <f t="shared" si="2"/>
+      <c r="C35" s="9">
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
-      <c r="D35" s="6">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="E35" s="6">
-        <f t="shared" si="3"/>
-        <v>297</v>
-      </c>
-      <c r="F35" s="6"/>
-      <c r="G35" s="7">
-        <f t="shared" si="4"/>
+      <c r="D35" s="9">
+        <f>$A$1*1.1*0.5</f>
+        <v>2.75</v>
+      </c>
+      <c r="E35" s="9">
+        <f t="shared" si="4"/>
+        <v>148.5</v>
+      </c>
+      <c r="F35" s="10">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G35" s="10">
+        <f t="shared" si="6"/>
         <v>44837</v>
       </c>
-      <c r="H35" s="6">
-        <f t="shared" si="5"/>
+      <c r="H35" s="9">
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="I35" s="6">
-        <v>10</v>
-      </c>
-      <c r="J35" s="6">
-        <f t="shared" si="6"/>
+      <c r="I35" s="9">
+        <v>10</v>
+      </c>
+      <c r="J35" s="9">
+        <f t="shared" si="8"/>
         <v>240</v>
       </c>
-      <c r="K35" s="6">
-        <f t="shared" si="1"/>
-        <v>537</v>
-      </c>
-      <c r="L35" s="6"/>
+      <c r="K35" s="9">
+        <f t="shared" si="1"/>
+        <v>388.5</v>
+      </c>
+      <c r="L35" s="5"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="4">
+      <c r="A36" s="3">
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="6">
-        <f t="shared" si="2"/>
+      <c r="C36" s="9">
+        <f t="shared" si="3"/>
         <v>53.5</v>
       </c>
-      <c r="D36" s="6">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="E36" s="6">
-        <f t="shared" si="3"/>
-        <v>294.25</v>
-      </c>
-      <c r="F36" s="6"/>
-      <c r="G36" s="7">
-        <f t="shared" si="4"/>
+      <c r="D36" s="9">
+        <f t="shared" ref="D36:D38" si="9">$A$1*1.1*0.5</f>
+        <v>2.75</v>
+      </c>
+      <c r="E36" s="9">
+        <f t="shared" si="4"/>
+        <v>147.125</v>
+      </c>
+      <c r="F36" s="10">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G36" s="10">
+        <f t="shared" si="6"/>
         <v>44838</v>
       </c>
-      <c r="H36" s="6">
-        <f t="shared" si="5"/>
+      <c r="H36" s="9">
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-      <c r="I36" s="6">
-        <v>10</v>
-      </c>
-      <c r="J36" s="6">
-        <f t="shared" si="6"/>
+      <c r="I36" s="9">
+        <v>10</v>
+      </c>
+      <c r="J36" s="9">
+        <f t="shared" si="8"/>
         <v>250</v>
       </c>
-      <c r="K36" s="6">
-        <f t="shared" si="1"/>
-        <v>544.25</v>
-      </c>
-      <c r="L36" s="6"/>
+      <c r="K36" s="9">
+        <f t="shared" si="1"/>
+        <v>397.125</v>
+      </c>
+      <c r="L36" s="5"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="4">
+      <c r="A37" s="3">
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="9">
+        <f t="shared" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="D37" s="9">
+        <f t="shared" si="9"/>
+        <v>2.75</v>
+      </c>
+      <c r="E37" s="9">
+        <f t="shared" si="4"/>
+        <v>145.75</v>
+      </c>
+      <c r="F37" s="10">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G37" s="10">
+        <f t="shared" si="6"/>
+        <v>44839</v>
+      </c>
+      <c r="H37" s="9">
+        <f t="shared" si="7"/>
+        <v>26</v>
+      </c>
+      <c r="I37" s="9">
+        <v>10</v>
+      </c>
+      <c r="J37" s="9">
+        <f t="shared" si="8"/>
+        <v>260</v>
+      </c>
+      <c r="K37" s="9">
+        <f t="shared" si="1"/>
+        <v>405.75</v>
+      </c>
+      <c r="L37" s="5"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="C37" s="6">
-        <f t="shared" si="2"/>
-        <v>53</v>
-      </c>
-      <c r="D37" s="6">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="E37" s="6">
-        <f t="shared" si="3"/>
-        <v>291.5</v>
-      </c>
-      <c r="F37" s="6"/>
-      <c r="G37" s="7">
-        <f t="shared" si="4"/>
-        <v>44839</v>
-      </c>
-      <c r="H37" s="6">
-        <f t="shared" si="5"/>
-        <v>26</v>
-      </c>
-      <c r="I37" s="6">
-        <v>10</v>
-      </c>
-      <c r="J37" s="6">
-        <f t="shared" si="6"/>
-        <v>260</v>
-      </c>
-      <c r="K37" s="6">
-        <f t="shared" si="1"/>
-        <v>551.5</v>
-      </c>
-      <c r="L37" s="6"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="4">
-        <v>36</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="6">
-        <f t="shared" si="2"/>
+      <c r="B38" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="9">
+        <f t="shared" si="3"/>
         <v>52.5</v>
       </c>
-      <c r="D38" s="6">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="E38" s="6">
-        <f t="shared" si="3"/>
-        <v>288.75</v>
-      </c>
-      <c r="F38" s="6"/>
-      <c r="G38" s="7">
-        <f t="shared" si="4"/>
+      <c r="D38" s="9">
+        <f t="shared" si="9"/>
+        <v>2.75</v>
+      </c>
+      <c r="E38" s="9">
+        <f t="shared" si="4"/>
+        <v>144.375</v>
+      </c>
+      <c r="F38" s="10">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G38" s="10">
+        <f t="shared" si="6"/>
         <v>44840</v>
       </c>
-      <c r="H38" s="6">
-        <f t="shared" si="5"/>
+      <c r="H38" s="9">
+        <f t="shared" si="7"/>
         <v>27</v>
       </c>
-      <c r="I38" s="6">
-        <v>10</v>
-      </c>
-      <c r="J38" s="6">
-        <f t="shared" si="6"/>
+      <c r="I38" s="9">
+        <v>10</v>
+      </c>
+      <c r="J38" s="9">
+        <f t="shared" si="8"/>
         <v>270</v>
       </c>
-      <c r="K38" s="6">
-        <f t="shared" si="1"/>
-        <v>558.75</v>
-      </c>
-      <c r="L38" s="6"/>
+      <c r="K38" s="9">
+        <f t="shared" si="1"/>
+        <v>414.375</v>
+      </c>
+      <c r="L38" s="5"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B41" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" s="6">
+      <c r="B41" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="9">
         <f>SUM(K3:K38)</f>
-        <v>15907.5</v>
-      </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
+        <v>15321.75</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B42" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="6">
+      <c r="B42" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="9">
         <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B43" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" s="6">
+      <c r="B43" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="9">
         <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B44" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="12">
+        <f>MAX(K3:K38)</f>
+        <v>529.75</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LR3/table_1_5.xlsx
+++ b/LR3/table_1_5.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BBBD47-5EB1-4EC3-8FBC-4915BE485643}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137B913C-13CE-42F6-8EC8-9970F0B0F838}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -536,7 +536,7 @@
   <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/LR3/table_1_5.xlsx
+++ b/LR3/table_1_5.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Студент\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAC5B29-FD08-4ECA-A7D8-394BA168730D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{860A2210-6715-462F-A8FF-AABC39040614}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -180,7 +179,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -574,25 +573,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96FA895C-9AB2-43C4-AF18-40226EDD4E02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:J38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="2" max="2" width="17.09765625" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="12.375" customWidth="1"/>
-    <col min="8" max="8" width="10.75" customWidth="1"/>
+    <col min="7" max="7" width="12.3984375" customWidth="1"/>
+    <col min="8" max="8" width="10.69921875" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>5</v>
       </c>
@@ -607,7 +606,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -642,7 +641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -667,11 +666,15 @@
         <f>DATE(2022,9,1)</f>
         <v>44805</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="3">
+        <f>IF(G3&lt;F3,0,G3-F3)</f>
+        <v>0</v>
+      </c>
       <c r="I3" s="3">
         <v>10</v>
       </c>
       <c r="J3" s="3">
+        <f>H3*I3</f>
         <v>0</v>
       </c>
       <c r="K3" s="3">
@@ -679,7 +682,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -687,6 +690,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="3">
+        <f>C3-0.5</f>
         <v>69.5</v>
       </c>
       <c r="D4" s="3">
@@ -706,20 +710,23 @@
         <v>44806</v>
       </c>
       <c r="H4" s="3">
+        <f t="shared" ref="H4:H38" si="2">IF(G4&lt;F4,0,G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="3">
+        <f>I3</f>
         <v>10</v>
       </c>
       <c r="J4" s="3">
+        <f t="shared" ref="J4:J38" si="3">H4*I4</f>
         <v>0</v>
       </c>
       <c r="K4" s="3">
-        <f t="shared" ref="K4:K38" si="2">SUM(E4,J4)</f>
+        <f t="shared" ref="K4:K38" si="4">SUM(E4,J4)</f>
         <v>382.25</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -727,6 +734,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="3">
+        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="3">
@@ -738,28 +746,31 @@
         <v>379.5</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" ref="F5:F38" si="3">F4</f>
+        <f t="shared" ref="F5:F38" si="6">F4</f>
         <v>44813</v>
       </c>
       <c r="G5" s="5">
-        <f t="shared" ref="G5:G38" si="4">G4+1</f>
+        <f t="shared" ref="G5:G38" si="7">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I5" s="3">
+        <f t="shared" ref="I5:I38" si="8">I4</f>
         <v>10</v>
       </c>
       <c r="J5" s="3">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K5" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>379.5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -767,6 +778,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="3">
+        <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="3">
@@ -778,28 +790,31 @@
         <v>376.75</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G6" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44808</v>
       </c>
       <c r="H6" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I6" s="3">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J6" s="3">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K6" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>376.75</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -807,6 +822,7 @@
         <v>15</v>
       </c>
       <c r="C7" s="3">
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="D7" s="3">
@@ -818,28 +834,31 @@
         <v>374</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G7" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44809</v>
       </c>
       <c r="H7" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I7" s="3">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J7" s="3">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>374</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -847,6 +866,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="3">
+        <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="3">
@@ -858,28 +878,31 @@
         <v>371.25</v>
       </c>
       <c r="F8" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G8" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44810</v>
       </c>
       <c r="H8" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I8" s="3">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J8" s="3">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>371.25</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -887,6 +910,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="3">
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="D9" s="3">
@@ -898,28 +922,31 @@
         <v>368.5</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G9" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44811</v>
       </c>
       <c r="H9" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I9" s="3">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J9" s="3">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K9" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>368.5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -927,6 +954,7 @@
         <v>18</v>
       </c>
       <c r="C10" s="3">
+        <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="3">
@@ -938,28 +966,31 @@
         <v>365.75</v>
       </c>
       <c r="F10" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G10" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44812</v>
       </c>
       <c r="H10" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I10" s="3">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J10" s="3">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>365.75</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -967,6 +998,7 @@
         <v>19</v>
       </c>
       <c r="C11" s="3">
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="D11" s="3">
@@ -978,28 +1010,31 @@
         <v>363</v>
       </c>
       <c r="F11" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G11" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="H11" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I11" s="3">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J11" s="3">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>363</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1007,6 +1042,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="3">
+        <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="3">
@@ -1018,29 +1054,31 @@
         <v>360.25</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G12" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44814</v>
       </c>
       <c r="H12" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I12" s="3">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J12" s="3">
-        <f>I12*H12</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="K12" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>370.25</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1048,6 +1086,7 @@
         <v>21</v>
       </c>
       <c r="C13" s="3">
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="D13" s="3">
@@ -1059,29 +1098,31 @@
         <v>357.5</v>
       </c>
       <c r="F13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G13" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44815</v>
       </c>
       <c r="H13" s="3">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I13" s="3">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J13" s="3">
-        <f t="shared" ref="J13:J38" si="5">I13*H13</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="K13" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>377.5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1089,6 +1130,7 @@
         <v>22</v>
       </c>
       <c r="C14" s="3">
+        <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="3">
@@ -1100,29 +1142,31 @@
         <v>354.75</v>
       </c>
       <c r="F14" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G14" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44816</v>
       </c>
       <c r="H14" s="3">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I14" s="3">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J14" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="K14" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>384.75</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -1130,6 +1174,7 @@
         <v>23</v>
       </c>
       <c r="C15" s="3">
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="D15" s="3">
@@ -1141,29 +1186,31 @@
         <v>352</v>
       </c>
       <c r="F15" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G15" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44817</v>
       </c>
       <c r="H15" s="3">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="I15" s="3">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J15" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="K15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>392</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -1171,6 +1218,7 @@
         <v>24</v>
       </c>
       <c r="C16" s="3">
+        <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="3">
@@ -1182,29 +1230,31 @@
         <v>349.25</v>
       </c>
       <c r="F16" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G16" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44818</v>
       </c>
       <c r="H16" s="3">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I16" s="3">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J16" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="K16" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>399.25</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -1212,6 +1262,7 @@
         <v>25</v>
       </c>
       <c r="C17" s="3">
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="D17" s="3">
@@ -1223,29 +1274,31 @@
         <v>346.5</v>
       </c>
       <c r="F17" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G17" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44819</v>
       </c>
       <c r="H17" s="3">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I17" s="3">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J17" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="K17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>406.5</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -1253,6 +1306,7 @@
         <v>26</v>
       </c>
       <c r="C18" s="3">
+        <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="3">
@@ -1264,29 +1318,31 @@
         <v>343.75</v>
       </c>
       <c r="F18" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G18" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44820</v>
       </c>
       <c r="H18" s="3">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I18" s="3">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J18" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="K18" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>413.75</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -1294,6 +1350,7 @@
         <v>27</v>
       </c>
       <c r="C19" s="3">
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="D19" s="3">
@@ -1305,29 +1362,31 @@
         <v>341</v>
       </c>
       <c r="F19" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G19" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44821</v>
       </c>
       <c r="H19" s="3">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="I19" s="3">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J19" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="K19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>421</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -1335,6 +1394,7 @@
         <v>28</v>
       </c>
       <c r="C20" s="3">
+        <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="3">
@@ -1346,29 +1406,31 @@
         <v>338.25</v>
       </c>
       <c r="F20" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G20" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44822</v>
       </c>
       <c r="H20" s="3">
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="I20" s="3">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J20" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="K20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>428.25</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -1376,6 +1438,7 @@
         <v>29</v>
       </c>
       <c r="C21" s="3">
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="D21" s="3">
@@ -1387,29 +1450,31 @@
         <v>335.5</v>
       </c>
       <c r="F21" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G21" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44823</v>
       </c>
       <c r="H21" s="3">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="I21" s="3">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J21" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="K21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>435.5</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -1417,6 +1482,7 @@
         <v>30</v>
       </c>
       <c r="C22" s="3">
+        <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="3">
@@ -1428,29 +1494,31 @@
         <v>332.75</v>
       </c>
       <c r="F22" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G22" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44824</v>
       </c>
       <c r="H22" s="3">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="I22" s="3">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J22" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
       <c r="K22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>442.75</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -1458,6 +1526,7 @@
         <v>34</v>
       </c>
       <c r="C23" s="3">
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="D23" s="3">
@@ -1469,29 +1538,31 @@
         <v>330</v>
       </c>
       <c r="F23" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G23" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44825</v>
       </c>
       <c r="H23" s="3">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="I23" s="3">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J23" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="K23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>450</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -1499,6 +1570,7 @@
         <v>35</v>
       </c>
       <c r="C24" s="3">
+        <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="3">
@@ -1510,29 +1582,31 @@
         <v>327.25</v>
       </c>
       <c r="F24" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G24" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44826</v>
       </c>
       <c r="H24" s="3">
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="I24" s="3">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J24" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="K24" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>457.25</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -1540,6 +1614,7 @@
         <v>36</v>
       </c>
       <c r="C25" s="3">
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="D25" s="3">
@@ -1551,29 +1626,31 @@
         <v>324.5</v>
       </c>
       <c r="F25" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G25" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44827</v>
       </c>
       <c r="H25" s="3">
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="I25" s="3">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J25" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
       <c r="K25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>464.5</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -1581,6 +1658,7 @@
         <v>37</v>
       </c>
       <c r="C26" s="3">
+        <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="3">
@@ -1592,29 +1670,31 @@
         <v>321.75</v>
       </c>
       <c r="F26" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G26" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44828</v>
       </c>
       <c r="H26" s="3">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="I26" s="3">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J26" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="K26" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>471.75</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -1622,6 +1702,7 @@
         <v>38</v>
       </c>
       <c r="C27" s="3">
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="D27" s="3">
@@ -1633,29 +1714,31 @@
         <v>319</v>
       </c>
       <c r="F27" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G27" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44829</v>
       </c>
       <c r="H27" s="3">
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="I27" s="3">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J27" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
       <c r="K27" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>479</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -1663,6 +1746,7 @@
         <v>39</v>
       </c>
       <c r="C28" s="3">
+        <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="3">
@@ -1674,29 +1758,31 @@
         <v>316.25</v>
       </c>
       <c r="F28" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G28" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44830</v>
       </c>
       <c r="H28" s="3">
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="I28" s="3">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J28" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>170</v>
       </c>
       <c r="K28" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>486.25</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -1704,6 +1790,7 @@
         <v>40</v>
       </c>
       <c r="C29" s="3">
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="D29" s="3">
@@ -1715,29 +1802,31 @@
         <v>313.5</v>
       </c>
       <c r="F29" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G29" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44831</v>
       </c>
       <c r="H29" s="3">
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="I29" s="3">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J29" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="K29" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>493.5</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -1745,6 +1834,7 @@
         <v>41</v>
       </c>
       <c r="C30" s="3">
+        <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="3">
@@ -1756,29 +1846,31 @@
         <v>310.75</v>
       </c>
       <c r="F30" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G30" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44832</v>
       </c>
       <c r="H30" s="3">
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="I30" s="3">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J30" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>190</v>
       </c>
       <c r="K30" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>500.75</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -1786,6 +1878,7 @@
         <v>42</v>
       </c>
       <c r="C31" s="3">
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="D31" s="3">
@@ -1797,29 +1890,31 @@
         <v>308</v>
       </c>
       <c r="F31" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G31" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44833</v>
       </c>
       <c r="H31" s="3">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="I31" s="3">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J31" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="K31" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>508</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -1827,6 +1922,7 @@
         <v>43</v>
       </c>
       <c r="C32" s="3">
+        <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="3">
@@ -1838,29 +1934,31 @@
         <v>305.25</v>
       </c>
       <c r="F32" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G32" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44834</v>
       </c>
       <c r="H32" s="3">
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="I32" s="3">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J32" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="K32" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>515.25</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -1868,6 +1966,7 @@
         <v>44</v>
       </c>
       <c r="C33" s="3">
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="D33" s="3">
@@ -1879,29 +1978,31 @@
         <v>302.5</v>
       </c>
       <c r="F33" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G33" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44835</v>
       </c>
       <c r="H33" s="3">
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="I33" s="3">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J33" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
       <c r="K33" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>522.5</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -1909,6 +2010,7 @@
         <v>45</v>
       </c>
       <c r="C34" s="3">
+        <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="3">
@@ -1920,29 +2022,31 @@
         <v>299.75</v>
       </c>
       <c r="F34" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G34" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44836</v>
       </c>
       <c r="H34" s="3">
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="I34" s="3">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J34" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>230</v>
       </c>
       <c r="K34" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>529.75</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -1950,6 +2054,7 @@
         <v>46</v>
       </c>
       <c r="C35" s="3">
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="D35" s="3">
@@ -1961,29 +2066,31 @@
         <v>148.5</v>
       </c>
       <c r="F35" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G35" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44837</v>
       </c>
       <c r="H35" s="3">
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="I35" s="3">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J35" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="K35" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>388.5</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -1991,6 +2098,7 @@
         <v>47</v>
       </c>
       <c r="C36" s="3">
+        <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="3">
@@ -2002,29 +2110,31 @@
         <v>147.125</v>
       </c>
       <c r="F36" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G36" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44838</v>
       </c>
       <c r="H36" s="3">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="I36" s="3">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J36" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
       <c r="K36" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>397.125</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -2032,6 +2142,7 @@
         <v>48</v>
       </c>
       <c r="C37" s="3">
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="D37" s="3">
@@ -2043,29 +2154,31 @@
         <v>145.75</v>
       </c>
       <c r="F37" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G37" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44839</v>
       </c>
       <c r="H37" s="3">
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="I37" s="3">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J37" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>260</v>
       </c>
       <c r="K37" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>405.75</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -2073,6 +2186,7 @@
         <v>49</v>
       </c>
       <c r="C38" s="3">
+        <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="3">
@@ -2084,29 +2198,31 @@
         <v>144.375</v>
       </c>
       <c r="F38" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G38" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44840</v>
       </c>
       <c r="H38" s="3">
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="I38" s="3">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J38" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>270</v>
       </c>
       <c r="K38" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>414.375</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2119,7 +2235,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="7" t="s">
         <v>10</v>
@@ -2137,7 +2253,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="2" t="s">
         <v>31</v>
@@ -2155,7 +2271,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="2" t="s">
         <v>32</v>
@@ -2173,7 +2289,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="2" t="s">
         <v>33</v>

--- a/LR3/table_1_5.xlsx
+++ b/LR3/table_1_5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\LR3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -576,7 +576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J3" sqref="J3:J38"/>
     </sheetView>
   </sheetViews>
@@ -667,7 +667,7 @@
         <v>44805</v>
       </c>
       <c r="H3" s="3">
-        <f>IF(G3&lt;F3,0,G3-F3)</f>
+        <f>IF(G3&gt;F3,G3-F3,0)</f>
         <v>0</v>
       </c>
       <c r="I3" s="3">
@@ -710,7 +710,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="3">
-        <f t="shared" ref="H4:H38" si="2">IF(G4&lt;F4,0,G4-F4)</f>
+        <f t="shared" ref="H4:H38" si="2">IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
       <c r="I4" s="3">
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="3">
-        <f t="shared" ref="I5:I38" si="8">I4</f>
+        <f t="shared" ref="I5:I37" si="8">I4</f>
         <v>10</v>
       </c>
       <c r="J5" s="3">
@@ -2210,7 +2210,7 @@
         <v>27</v>
       </c>
       <c r="I38" s="3">
-        <f t="shared" si="8"/>
+        <f>I37</f>
         <v>10</v>
       </c>
       <c r="J38" s="3">

--- a/LR3/table_1_5.xlsx
+++ b/LR3/table_1_5.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137B913C-13CE-42F6-8EC8-9970F0B0F838}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D7FDAB-46DF-4B27-A3E5-49C7007AEB0D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
-    <t xml:space="preserve">№ квартиры </t>
-  </si>
-  <si>
     <t>Фамилия квартиросъемщика</t>
   </si>
   <si>
@@ -148,15 +145,6 @@
     <t>Общая сумма, руб.</t>
   </si>
   <si>
-    <t>Средняя площадь, кв.м</t>
-  </si>
-  <si>
-    <t>Площадь, кв.м</t>
-  </si>
-  <si>
-    <t>Тариф, руб./кв.м</t>
-  </si>
-  <si>
     <t>Сумма, руб.</t>
   </si>
   <si>
@@ -173,6 +161,18 @@
   </si>
   <si>
     <t>Максимальная сумма, руб.</t>
+  </si>
+  <si>
+    <t>№ квартиры</t>
+  </si>
+  <si>
+    <t>Средняя площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Тариф, руб./кв.м.</t>
   </si>
 </sst>
 </file>
@@ -225,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -253,6 +253,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -535,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -565,37 +566,37 @@
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
       <c r="C2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="L2" s="5"/>
     </row>
@@ -604,7 +605,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="9">
         <v>70</v>
@@ -646,7 +647,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="9">
         <f>C3-0.5</f>
@@ -691,7 +692,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" ref="C5:C38" si="3">C4-0.5</f>
@@ -736,7 +737,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" si="3"/>
@@ -781,7 +782,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="3"/>
@@ -826,7 +827,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="9">
         <f t="shared" si="3"/>
@@ -871,7 +872,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" si="3"/>
@@ -916,7 +917,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="9">
         <f t="shared" si="3"/>
@@ -961,7 +962,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="9">
         <f t="shared" si="3"/>
@@ -1006,7 +1007,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="9">
         <f t="shared" si="3"/>
@@ -1051,7 +1052,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="9">
         <f t="shared" si="3"/>
@@ -1096,7 +1097,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="9">
         <f t="shared" si="3"/>
@@ -1141,7 +1142,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="9">
         <f t="shared" si="3"/>
@@ -1186,7 +1187,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="9">
         <f t="shared" si="3"/>
@@ -1231,7 +1232,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="9">
         <f t="shared" si="3"/>
@@ -1276,7 +1277,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="9">
         <f t="shared" si="3"/>
@@ -1321,7 +1322,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="9">
         <f t="shared" si="3"/>
@@ -1366,7 +1367,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="9">
         <f t="shared" si="3"/>
@@ -1411,7 +1412,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="9">
         <f t="shared" si="3"/>
@@ -1456,7 +1457,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="9">
         <f t="shared" si="3"/>
@@ -1501,7 +1502,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="9">
         <f t="shared" si="3"/>
@@ -1546,7 +1547,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" s="9">
         <f t="shared" si="3"/>
@@ -1591,7 +1592,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" s="9">
         <f t="shared" si="3"/>
@@ -1636,7 +1637,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" s="9">
         <f t="shared" si="3"/>
@@ -1681,7 +1682,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" s="9">
         <f t="shared" si="3"/>
@@ -1726,7 +1727,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28" s="9">
         <f t="shared" si="3"/>
@@ -1771,7 +1772,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" s="9">
         <f t="shared" si="3"/>
@@ -1816,7 +1817,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" s="9">
         <f t="shared" si="3"/>
@@ -1861,7 +1862,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31" s="9">
         <f t="shared" si="3"/>
@@ -1906,7 +1907,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C32" s="9">
         <f t="shared" si="3"/>
@@ -1951,7 +1952,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C33" s="9">
         <f t="shared" si="3"/>
@@ -1996,7 +1997,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C34" s="9">
         <f t="shared" si="3"/>
@@ -2041,7 +2042,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C35" s="9">
         <f t="shared" si="3"/>
@@ -2086,7 +2087,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36" s="9">
         <f t="shared" si="3"/>
@@ -2131,7 +2132,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C37" s="9">
         <f t="shared" si="3"/>
@@ -2176,7 +2177,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C38" s="9">
         <f t="shared" si="3"/>
@@ -2245,9 +2246,9 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B41" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" s="9">
+        <v>40</v>
+      </c>
+      <c r="C41" s="13">
         <f>SUM(K3:K38)</f>
         <v>15321.75</v>
       </c>
@@ -2263,7 +2264,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B42" s="6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C42" s="9">
         <f>AVERAGE(C3:C38)</f>
@@ -2281,7 +2282,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B43" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C43" s="9">
         <f>MAX(H3:H38)</f>
@@ -2299,7 +2300,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B44" s="11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C44" s="12">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_5.xlsx
+++ b/LR3/table_1_5.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D7FDAB-46DF-4B27-A3E5-49C7007AEB0D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804B59B0-30C5-4FB6-9AC3-97BBC4A8A9ED}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -133,9 +133,6 @@
     <t>Дата оплаты</t>
   </si>
   <si>
-    <t>Максимальный срок просрочки, дней</t>
-  </si>
-  <si>
     <t>Кузин</t>
   </si>
   <si>
@@ -148,9 +145,6 @@
     <t>Сумма, руб.</t>
   </si>
   <si>
-    <t>Просрочка, дней</t>
-  </si>
-  <si>
     <t>Штраф, руб.</t>
   </si>
   <si>
@@ -173,6 +167,12 @@
   </si>
   <si>
     <t>Тариф, руб./кв.м.</t>
+  </si>
+  <si>
+    <t>Максимальный срок просрочки, дней.</t>
+  </si>
+  <si>
+    <t>Просрочка, дней.</t>
   </si>
 </sst>
 </file>
@@ -225,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -243,9 +243,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -254,6 +251,8 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -536,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -560,25 +559,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="11">
+      <c r="A1" s="6">
         <v>5</v>
       </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>35</v>
@@ -587,16 +596,16 @@
         <v>36</v>
       </c>
       <c r="H2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>44</v>
-      </c>
       <c r="J2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="L2" s="5"/>
     </row>
@@ -604,38 +613,38 @@
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>70</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <f>$A$1*1.1</f>
         <v>5.5</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <f>C3*D3</f>
         <v>385</v>
       </c>
-      <c r="F3" s="10">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="10">
+      <c r="F3" s="9">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="9">
         <v>44805</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <f>IF(G3&lt;$F$3,0,G3-$F$3)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="9">
-        <v>10</v>
-      </c>
-      <c r="J3" s="9">
+      <c r="I3" s="8">
+        <v>10</v>
+      </c>
+      <c r="J3" s="8">
         <f>I3*H3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="8">
         <f>E3+J3</f>
         <v>385</v>
       </c>
@@ -646,41 +655,41 @@
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <f>C3-0.5</f>
         <v>69.5</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <f t="shared" ref="D4:D34" si="0">$A$1*1.1</f>
         <v>5.5</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <f>C4*D4</f>
         <v>382.25</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <f>$F$3</f>
         <v>44813</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9">
         <f>G3+1</f>
         <v>44806</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <f>IF(G4&lt;$F$3,0,G4-$F$3)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="9">
-        <v>10</v>
-      </c>
-      <c r="J4" s="9">
+      <c r="I4" s="8">
+        <v>10</v>
+      </c>
+      <c r="J4" s="8">
         <f>I4*H4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="8">
         <f t="shared" ref="K4:K38" si="1">E4+J4</f>
         <v>382.25</v>
       </c>
@@ -691,41 +700,41 @@
         <f t="shared" ref="A5:A38" si="2">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <f t="shared" ref="C5:C38" si="3">C4-0.5</f>
         <v>69</v>
       </c>
-      <c r="D5" s="9">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="E5" s="9">
+      <c r="D5" s="8">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="E5" s="8">
         <f t="shared" ref="E5:E38" si="4">C5*D5</f>
         <v>379.5</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <f t="shared" ref="F5:F38" si="5">$F$3</f>
         <v>44813</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="9">
         <f t="shared" ref="G5:G38" si="6">G4+1</f>
         <v>44807</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <f t="shared" ref="H5:H38" si="7">IF(G5&lt;$F$3,0,G5-$F$3)</f>
         <v>0</v>
       </c>
-      <c r="I5" s="9">
-        <v>10</v>
-      </c>
-      <c r="J5" s="9">
+      <c r="I5" s="8">
+        <v>10</v>
+      </c>
+      <c r="J5" s="8">
         <f t="shared" ref="J5:J38" si="8">I5*H5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="8">
         <f t="shared" si="1"/>
         <v>379.5</v>
       </c>
@@ -736,41 +745,41 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <f t="shared" si="3"/>
         <v>68.5</v>
       </c>
-      <c r="D6" s="9">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="E6" s="9">
+      <c r="D6" s="8">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="E6" s="8">
         <f>C6*D6</f>
         <v>376.75</v>
       </c>
-      <c r="F6" s="10">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G6" s="10">
+      <c r="F6" s="9">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G6" s="9">
         <f t="shared" si="6"/>
         <v>44808</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I6" s="9">
-        <v>10</v>
-      </c>
-      <c r="J6" s="9">
+      <c r="I6" s="8">
+        <v>10</v>
+      </c>
+      <c r="J6" s="8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="8">
         <f t="shared" si="1"/>
         <v>376.75</v>
       </c>
@@ -781,41 +790,41 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <f t="shared" si="3"/>
         <v>68</v>
       </c>
-      <c r="D7" s="9">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="E7" s="9">
+      <c r="D7" s="8">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="E7" s="8">
         <f t="shared" si="4"/>
         <v>374</v>
       </c>
-      <c r="F7" s="10">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G7" s="10">
+      <c r="F7" s="9">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G7" s="9">
         <f t="shared" si="6"/>
         <v>44809</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I7" s="9">
-        <v>10</v>
-      </c>
-      <c r="J7" s="9">
+      <c r="I7" s="8">
+        <v>10</v>
+      </c>
+      <c r="J7" s="8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="8">
         <f t="shared" si="1"/>
         <v>374</v>
       </c>
@@ -826,41 +835,41 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <f t="shared" si="3"/>
         <v>67.5</v>
       </c>
-      <c r="D8" s="9">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="E8" s="9">
+      <c r="D8" s="8">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="E8" s="8">
         <f t="shared" si="4"/>
         <v>371.25</v>
       </c>
-      <c r="F8" s="10">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G8" s="10">
+      <c r="F8" s="9">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G8" s="9">
         <f t="shared" si="6"/>
         <v>44810</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I8" s="9">
-        <v>10</v>
-      </c>
-      <c r="J8" s="9">
+      <c r="I8" s="8">
+        <v>10</v>
+      </c>
+      <c r="J8" s="8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="8">
         <f t="shared" si="1"/>
         <v>371.25</v>
       </c>
@@ -871,41 +880,41 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="D9" s="9">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="E9" s="9">
+      <c r="D9" s="8">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="E9" s="8">
         <f t="shared" si="4"/>
         <v>368.5</v>
       </c>
-      <c r="F9" s="10">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G9" s="10">
+      <c r="F9" s="9">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G9" s="9">
         <f t="shared" si="6"/>
         <v>44811</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I9" s="9">
-        <v>10</v>
-      </c>
-      <c r="J9" s="9">
+      <c r="I9" s="8">
+        <v>10</v>
+      </c>
+      <c r="J9" s="8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="8">
         <f t="shared" si="1"/>
         <v>368.5</v>
       </c>
@@ -916,41 +925,41 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <f t="shared" si="3"/>
         <v>66.5</v>
       </c>
-      <c r="D10" s="9">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="E10" s="9">
+      <c r="D10" s="8">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="E10" s="8">
         <f t="shared" si="4"/>
         <v>365.75</v>
       </c>
-      <c r="F10" s="10">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G10" s="10">
+      <c r="F10" s="9">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G10" s="9">
         <f t="shared" si="6"/>
         <v>44812</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I10" s="9">
-        <v>10</v>
-      </c>
-      <c r="J10" s="9">
+      <c r="I10" s="8">
+        <v>10</v>
+      </c>
+      <c r="J10" s="8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="8">
         <f t="shared" si="1"/>
         <v>365.75</v>
       </c>
@@ -961,41 +970,41 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <f t="shared" si="3"/>
         <v>66</v>
       </c>
-      <c r="D11" s="9">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="E11" s="9">
+      <c r="D11" s="8">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="E11" s="8">
         <f t="shared" si="4"/>
         <v>363</v>
       </c>
-      <c r="F11" s="10">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G11" s="10">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="H11" s="9">
+      <c r="F11" s="9">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G11" s="9">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="H11" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I11" s="9">
-        <v>10</v>
-      </c>
-      <c r="J11" s="9">
+      <c r="I11" s="8">
+        <v>10</v>
+      </c>
+      <c r="J11" s="8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="8">
         <f t="shared" si="1"/>
         <v>363</v>
       </c>
@@ -1006,41 +1015,41 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <f t="shared" si="3"/>
         <v>65.5</v>
       </c>
-      <c r="D12" s="9">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="E12" s="9">
+      <c r="D12" s="8">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="E12" s="8">
         <f t="shared" si="4"/>
         <v>360.25</v>
       </c>
-      <c r="F12" s="10">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G12" s="10">
+      <c r="F12" s="9">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G12" s="9">
         <f t="shared" si="6"/>
         <v>44814</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="8">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="I12" s="9">
-        <v>10</v>
-      </c>
-      <c r="J12" s="9">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="K12" s="9">
+      <c r="I12" s="8">
+        <v>10</v>
+      </c>
+      <c r="J12" s="8">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="K12" s="8">
         <f t="shared" si="1"/>
         <v>370.25</v>
       </c>
@@ -1051,41 +1060,41 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="9">
+      <c r="B13" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="8">
         <f t="shared" si="3"/>
         <v>65</v>
       </c>
-      <c r="D13" s="9">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="E13" s="9">
+      <c r="D13" s="8">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="E13" s="8">
         <f t="shared" si="4"/>
         <v>357.5</v>
       </c>
-      <c r="F13" s="10">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G13" s="10">
+      <c r="F13" s="9">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G13" s="9">
         <f t="shared" si="6"/>
         <v>44815</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="8">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="I13" s="9">
-        <v>10</v>
-      </c>
-      <c r="J13" s="9">
+      <c r="I13" s="8">
+        <v>10</v>
+      </c>
+      <c r="J13" s="8">
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="8">
         <f t="shared" si="1"/>
         <v>377.5</v>
       </c>
@@ -1096,41 +1105,41 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <f t="shared" si="3"/>
         <v>64.5</v>
       </c>
-      <c r="D14" s="9">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="E14" s="9">
+      <c r="D14" s="8">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="E14" s="8">
         <f t="shared" si="4"/>
         <v>354.75</v>
       </c>
-      <c r="F14" s="10">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G14" s="10">
+      <c r="F14" s="9">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G14" s="9">
         <f t="shared" si="6"/>
         <v>44816</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="8">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="I14" s="9">
-        <v>10</v>
-      </c>
-      <c r="J14" s="9">
+      <c r="I14" s="8">
+        <v>10</v>
+      </c>
+      <c r="J14" s="8">
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="8">
         <f t="shared" si="1"/>
         <v>384.75</v>
       </c>
@@ -1141,41 +1150,41 @@
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <f t="shared" si="3"/>
         <v>64</v>
       </c>
-      <c r="D15" s="9">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="E15" s="9">
+      <c r="D15" s="8">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="E15" s="8">
         <f t="shared" si="4"/>
         <v>352</v>
       </c>
-      <c r="F15" s="10">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G15" s="10">
+      <c r="F15" s="9">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G15" s="9">
         <f t="shared" si="6"/>
         <v>44817</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="8">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="I15" s="9">
-        <v>10</v>
-      </c>
-      <c r="J15" s="9">
+      <c r="I15" s="8">
+        <v>10</v>
+      </c>
+      <c r="J15" s="8">
         <f t="shared" si="8"/>
         <v>40</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="8">
         <f t="shared" si="1"/>
         <v>392</v>
       </c>
@@ -1186,41 +1195,41 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <f t="shared" si="3"/>
         <v>63.5</v>
       </c>
-      <c r="D16" s="9">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="E16" s="9">
+      <c r="D16" s="8">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="E16" s="8">
         <f t="shared" si="4"/>
         <v>349.25</v>
       </c>
-      <c r="F16" s="10">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G16" s="10">
+      <c r="F16" s="9">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G16" s="9">
         <f t="shared" si="6"/>
         <v>44818</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="8">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="I16" s="9">
-        <v>10</v>
-      </c>
-      <c r="J16" s="9">
+      <c r="I16" s="8">
+        <v>10</v>
+      </c>
+      <c r="J16" s="8">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="8">
         <f t="shared" si="1"/>
         <v>399.25</v>
       </c>
@@ -1231,41 +1240,41 @@
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="8">
         <f t="shared" si="3"/>
         <v>63</v>
       </c>
-      <c r="D17" s="9">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="E17" s="9">
+      <c r="D17" s="8">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="E17" s="8">
         <f t="shared" si="4"/>
         <v>346.5</v>
       </c>
-      <c r="F17" s="10">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G17" s="10">
+      <c r="F17" s="9">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G17" s="9">
         <f t="shared" si="6"/>
         <v>44819</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="8">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="I17" s="9">
-        <v>10</v>
-      </c>
-      <c r="J17" s="9">
+      <c r="I17" s="8">
+        <v>10</v>
+      </c>
+      <c r="J17" s="8">
         <f t="shared" si="8"/>
         <v>60</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="8">
         <f t="shared" si="1"/>
         <v>406.5</v>
       </c>
@@ -1276,41 +1285,41 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="8">
         <f t="shared" si="3"/>
         <v>62.5</v>
       </c>
-      <c r="D18" s="9">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="E18" s="9">
+      <c r="D18" s="8">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="E18" s="8">
         <f t="shared" si="4"/>
         <v>343.75</v>
       </c>
-      <c r="F18" s="10">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G18" s="10">
+      <c r="F18" s="9">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G18" s="9">
         <f t="shared" si="6"/>
         <v>44820</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="8">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="I18" s="9">
-        <v>10</v>
-      </c>
-      <c r="J18" s="9">
+      <c r="I18" s="8">
+        <v>10</v>
+      </c>
+      <c r="J18" s="8">
         <f t="shared" si="8"/>
         <v>70</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="8">
         <f t="shared" si="1"/>
         <v>413.75</v>
       </c>
@@ -1321,41 +1330,41 @@
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="8">
         <f t="shared" si="3"/>
         <v>62</v>
       </c>
-      <c r="D19" s="9">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="E19" s="9">
+      <c r="D19" s="8">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="E19" s="8">
         <f t="shared" si="4"/>
         <v>341</v>
       </c>
-      <c r="F19" s="10">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G19" s="10">
+      <c r="F19" s="9">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G19" s="9">
         <f t="shared" si="6"/>
         <v>44821</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="8">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="I19" s="9">
-        <v>10</v>
-      </c>
-      <c r="J19" s="9">
+      <c r="I19" s="8">
+        <v>10</v>
+      </c>
+      <c r="J19" s="8">
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K19" s="8">
         <f t="shared" si="1"/>
         <v>421</v>
       </c>
@@ -1366,41 +1375,41 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="8">
         <f t="shared" si="3"/>
         <v>61.5</v>
       </c>
-      <c r="D20" s="9">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="E20" s="9">
+      <c r="D20" s="8">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="E20" s="8">
         <f t="shared" si="4"/>
         <v>338.25</v>
       </c>
-      <c r="F20" s="10">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G20" s="10">
+      <c r="F20" s="9">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G20" s="9">
         <f t="shared" si="6"/>
         <v>44822</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="8">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="I20" s="9">
-        <v>10</v>
-      </c>
-      <c r="J20" s="9">
+      <c r="I20" s="8">
+        <v>10</v>
+      </c>
+      <c r="J20" s="8">
         <f t="shared" si="8"/>
         <v>90</v>
       </c>
-      <c r="K20" s="9">
+      <c r="K20" s="8">
         <f t="shared" si="1"/>
         <v>428.25</v>
       </c>
@@ -1411,41 +1420,41 @@
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="8">
         <f t="shared" si="3"/>
         <v>61</v>
       </c>
-      <c r="D21" s="9">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="E21" s="9">
+      <c r="D21" s="8">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="E21" s="8">
         <f t="shared" si="4"/>
         <v>335.5</v>
       </c>
-      <c r="F21" s="10">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G21" s="10">
+      <c r="F21" s="9">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G21" s="9">
         <f t="shared" si="6"/>
         <v>44823</v>
       </c>
-      <c r="H21" s="9">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="I21" s="9">
-        <v>10</v>
-      </c>
-      <c r="J21" s="9">
+      <c r="H21" s="8">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="I21" s="8">
+        <v>10</v>
+      </c>
+      <c r="J21" s="8">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K21" s="8">
         <f t="shared" si="1"/>
         <v>435.5</v>
       </c>
@@ -1456,41 +1465,41 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="8">
         <f t="shared" si="3"/>
         <v>60.5</v>
       </c>
-      <c r="D22" s="9">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="E22" s="9">
+      <c r="D22" s="8">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="E22" s="8">
         <f t="shared" si="4"/>
         <v>332.75</v>
       </c>
-      <c r="F22" s="10">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G22" s="10">
+      <c r="F22" s="9">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G22" s="9">
         <f t="shared" si="6"/>
         <v>44824</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="8">
         <f t="shared" si="7"/>
         <v>11</v>
       </c>
-      <c r="I22" s="9">
-        <v>10</v>
-      </c>
-      <c r="J22" s="9">
+      <c r="I22" s="8">
+        <v>10</v>
+      </c>
+      <c r="J22" s="8">
         <f t="shared" si="8"/>
         <v>110</v>
       </c>
-      <c r="K22" s="9">
+      <c r="K22" s="8">
         <f t="shared" si="1"/>
         <v>442.75</v>
       </c>
@@ -1501,41 +1510,41 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="8">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="D23" s="9">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="E23" s="9">
+      <c r="D23" s="8">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="E23" s="8">
         <f t="shared" si="4"/>
         <v>330</v>
       </c>
-      <c r="F23" s="10">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G23" s="10">
+      <c r="F23" s="9">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G23" s="9">
         <f t="shared" si="6"/>
         <v>44825</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="8">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="I23" s="9">
-        <v>10</v>
-      </c>
-      <c r="J23" s="9">
+      <c r="I23" s="8">
+        <v>10</v>
+      </c>
+      <c r="J23" s="8">
         <f t="shared" si="8"/>
         <v>120</v>
       </c>
-      <c r="K23" s="9">
+      <c r="K23" s="8">
         <f t="shared" si="1"/>
         <v>450</v>
       </c>
@@ -1546,41 +1555,41 @@
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="8">
         <f t="shared" si="3"/>
         <v>59.5</v>
       </c>
-      <c r="D24" s="9">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="E24" s="9">
+      <c r="D24" s="8">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="E24" s="8">
         <f t="shared" si="4"/>
         <v>327.25</v>
       </c>
-      <c r="F24" s="10">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G24" s="10">
+      <c r="F24" s="9">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G24" s="9">
         <f t="shared" si="6"/>
         <v>44826</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="8">
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="I24" s="9">
-        <v>10</v>
-      </c>
-      <c r="J24" s="9">
+      <c r="I24" s="8">
+        <v>10</v>
+      </c>
+      <c r="J24" s="8">
         <f t="shared" si="8"/>
         <v>130</v>
       </c>
-      <c r="K24" s="9">
+      <c r="K24" s="8">
         <f t="shared" si="1"/>
         <v>457.25</v>
       </c>
@@ -1591,41 +1600,41 @@
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="8">
         <f t="shared" si="3"/>
         <v>59</v>
       </c>
-      <c r="D25" s="9">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="E25" s="9">
+      <c r="D25" s="8">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="E25" s="8">
         <f t="shared" si="4"/>
         <v>324.5</v>
       </c>
-      <c r="F25" s="10">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G25" s="10">
+      <c r="F25" s="9">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G25" s="9">
         <f t="shared" si="6"/>
         <v>44827</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="8">
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="I25" s="9">
-        <v>10</v>
-      </c>
-      <c r="J25" s="9">
+      <c r="I25" s="8">
+        <v>10</v>
+      </c>
+      <c r="J25" s="8">
         <f t="shared" si="8"/>
         <v>140</v>
       </c>
-      <c r="K25" s="9">
+      <c r="K25" s="8">
         <f t="shared" si="1"/>
         <v>464.5</v>
       </c>
@@ -1636,41 +1645,41 @@
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="8">
         <f t="shared" si="3"/>
         <v>58.5</v>
       </c>
-      <c r="D26" s="9">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="E26" s="9">
+      <c r="D26" s="8">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="E26" s="8">
         <f t="shared" si="4"/>
         <v>321.75</v>
       </c>
-      <c r="F26" s="10">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G26" s="10">
+      <c r="F26" s="9">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G26" s="9">
         <f t="shared" si="6"/>
         <v>44828</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="8">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="I26" s="9">
-        <v>10</v>
-      </c>
-      <c r="J26" s="9">
+      <c r="I26" s="8">
+        <v>10</v>
+      </c>
+      <c r="J26" s="8">
         <f t="shared" si="8"/>
         <v>150</v>
       </c>
-      <c r="K26" s="9">
+      <c r="K26" s="8">
         <f t="shared" si="1"/>
         <v>471.75</v>
       </c>
@@ -1681,41 +1690,41 @@
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="8">
         <f t="shared" si="3"/>
         <v>58</v>
       </c>
-      <c r="D27" s="9">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="E27" s="9">
+      <c r="D27" s="8">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="E27" s="8">
         <f t="shared" si="4"/>
         <v>319</v>
       </c>
-      <c r="F27" s="10">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G27" s="10">
+      <c r="F27" s="9">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G27" s="9">
         <f t="shared" si="6"/>
         <v>44829</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="8">
         <f t="shared" si="7"/>
         <v>16</v>
       </c>
-      <c r="I27" s="9">
-        <v>10</v>
-      </c>
-      <c r="J27" s="9">
+      <c r="I27" s="8">
+        <v>10</v>
+      </c>
+      <c r="J27" s="8">
         <f t="shared" si="8"/>
         <v>160</v>
       </c>
-      <c r="K27" s="9">
+      <c r="K27" s="8">
         <f t="shared" si="1"/>
         <v>479</v>
       </c>
@@ -1726,41 +1735,41 @@
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="8">
         <f t="shared" si="3"/>
         <v>57.5</v>
       </c>
-      <c r="D28" s="9">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="E28" s="9">
+      <c r="D28" s="8">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="E28" s="8">
         <f t="shared" si="4"/>
         <v>316.25</v>
       </c>
-      <c r="F28" s="10">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G28" s="10">
+      <c r="F28" s="9">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G28" s="9">
         <f t="shared" si="6"/>
         <v>44830</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="8">
         <f t="shared" si="7"/>
         <v>17</v>
       </c>
-      <c r="I28" s="9">
-        <v>10</v>
-      </c>
-      <c r="J28" s="9">
+      <c r="I28" s="8">
+        <v>10</v>
+      </c>
+      <c r="J28" s="8">
         <f t="shared" si="8"/>
         <v>170</v>
       </c>
-      <c r="K28" s="9">
+      <c r="K28" s="8">
         <f t="shared" si="1"/>
         <v>486.25</v>
       </c>
@@ -1771,41 +1780,41 @@
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="8">
         <f t="shared" si="3"/>
         <v>57</v>
       </c>
-      <c r="D29" s="9">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="E29" s="9">
+      <c r="D29" s="8">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="E29" s="8">
         <f t="shared" si="4"/>
         <v>313.5</v>
       </c>
-      <c r="F29" s="10">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G29" s="10">
+      <c r="F29" s="9">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G29" s="9">
         <f t="shared" si="6"/>
         <v>44831</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H29" s="8">
         <f t="shared" si="7"/>
         <v>18</v>
       </c>
-      <c r="I29" s="9">
-        <v>10</v>
-      </c>
-      <c r="J29" s="9">
+      <c r="I29" s="8">
+        <v>10</v>
+      </c>
+      <c r="J29" s="8">
         <f t="shared" si="8"/>
         <v>180</v>
       </c>
-      <c r="K29" s="9">
+      <c r="K29" s="8">
         <f t="shared" si="1"/>
         <v>493.5</v>
       </c>
@@ -1816,41 +1825,41 @@
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="8">
         <f t="shared" si="3"/>
         <v>56.5</v>
       </c>
-      <c r="D30" s="9">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="E30" s="9">
+      <c r="D30" s="8">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="E30" s="8">
         <f t="shared" si="4"/>
         <v>310.75</v>
       </c>
-      <c r="F30" s="10">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G30" s="10">
+      <c r="F30" s="9">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G30" s="9">
         <f t="shared" si="6"/>
         <v>44832</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="8">
         <f t="shared" si="7"/>
         <v>19</v>
       </c>
-      <c r="I30" s="9">
-        <v>10</v>
-      </c>
-      <c r="J30" s="9">
+      <c r="I30" s="8">
+        <v>10</v>
+      </c>
+      <c r="J30" s="8">
         <f t="shared" si="8"/>
         <v>190</v>
       </c>
-      <c r="K30" s="9">
+      <c r="K30" s="8">
         <f t="shared" si="1"/>
         <v>500.75</v>
       </c>
@@ -1861,41 +1870,41 @@
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="8">
         <f t="shared" si="3"/>
         <v>56</v>
       </c>
-      <c r="D31" s="9">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="E31" s="9">
+      <c r="D31" s="8">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="E31" s="8">
         <f t="shared" si="4"/>
         <v>308</v>
       </c>
-      <c r="F31" s="10">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G31" s="10">
+      <c r="F31" s="9">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G31" s="9">
         <f t="shared" si="6"/>
         <v>44833</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H31" s="8">
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="I31" s="9">
-        <v>10</v>
-      </c>
-      <c r="J31" s="9">
+      <c r="I31" s="8">
+        <v>10</v>
+      </c>
+      <c r="J31" s="8">
         <f t="shared" si="8"/>
         <v>200</v>
       </c>
-      <c r="K31" s="9">
+      <c r="K31" s="8">
         <f t="shared" si="1"/>
         <v>508</v>
       </c>
@@ -1906,41 +1915,41 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="8">
         <f t="shared" si="3"/>
         <v>55.5</v>
       </c>
-      <c r="D32" s="9">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="E32" s="9">
+      <c r="D32" s="8">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="E32" s="8">
         <f t="shared" si="4"/>
         <v>305.25</v>
       </c>
-      <c r="F32" s="10">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G32" s="10">
+      <c r="F32" s="9">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G32" s="9">
         <f t="shared" si="6"/>
         <v>44834</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H32" s="8">
         <f t="shared" si="7"/>
         <v>21</v>
       </c>
-      <c r="I32" s="9">
-        <v>10</v>
-      </c>
-      <c r="J32" s="9">
+      <c r="I32" s="8">
+        <v>10</v>
+      </c>
+      <c r="J32" s="8">
         <f t="shared" si="8"/>
         <v>210</v>
       </c>
-      <c r="K32" s="9">
+      <c r="K32" s="8">
         <f t="shared" si="1"/>
         <v>515.25</v>
       </c>
@@ -1951,41 +1960,41 @@
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="8">
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
-      <c r="D33" s="9">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="E33" s="9">
+      <c r="D33" s="8">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="E33" s="8">
         <f t="shared" si="4"/>
         <v>302.5</v>
       </c>
-      <c r="F33" s="10">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G33" s="10">
+      <c r="F33" s="9">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G33" s="9">
         <f t="shared" si="6"/>
         <v>44835</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H33" s="8">
         <f t="shared" si="7"/>
         <v>22</v>
       </c>
-      <c r="I33" s="9">
-        <v>10</v>
-      </c>
-      <c r="J33" s="9">
+      <c r="I33" s="8">
+        <v>10</v>
+      </c>
+      <c r="J33" s="8">
         <f t="shared" si="8"/>
         <v>220</v>
       </c>
-      <c r="K33" s="9">
+      <c r="K33" s="8">
         <f t="shared" si="1"/>
         <v>522.5</v>
       </c>
@@ -1996,41 +2005,41 @@
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="8">
         <f t="shared" si="3"/>
         <v>54.5</v>
       </c>
-      <c r="D34" s="9">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="E34" s="9">
+      <c r="D34" s="8">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="E34" s="8">
         <f t="shared" si="4"/>
         <v>299.75</v>
       </c>
-      <c r="F34" s="10">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G34" s="10">
+      <c r="F34" s="9">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G34" s="9">
         <f t="shared" si="6"/>
         <v>44836</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H34" s="8">
         <f t="shared" si="7"/>
         <v>23</v>
       </c>
-      <c r="I34" s="9">
-        <v>10</v>
-      </c>
-      <c r="J34" s="9">
+      <c r="I34" s="8">
+        <v>10</v>
+      </c>
+      <c r="J34" s="8">
         <f t="shared" si="8"/>
         <v>230</v>
       </c>
-      <c r="K34" s="9">
+      <c r="K34" s="8">
         <f t="shared" si="1"/>
         <v>529.75</v>
       </c>
@@ -2041,41 +2050,41 @@
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="8">
         <f t="shared" si="3"/>
         <v>54</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="8">
         <f>$A$1*1.1*0.5</f>
         <v>2.75</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="8">
         <f t="shared" si="4"/>
         <v>148.5</v>
       </c>
-      <c r="F35" s="10">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G35" s="10">
+      <c r="F35" s="9">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G35" s="9">
         <f t="shared" si="6"/>
         <v>44837</v>
       </c>
-      <c r="H35" s="9">
+      <c r="H35" s="8">
         <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="I35" s="9">
-        <v>10</v>
-      </c>
-      <c r="J35" s="9">
+      <c r="I35" s="8">
+        <v>10</v>
+      </c>
+      <c r="J35" s="8">
         <f t="shared" si="8"/>
         <v>240</v>
       </c>
-      <c r="K35" s="9">
+      <c r="K35" s="8">
         <f t="shared" si="1"/>
         <v>388.5</v>
       </c>
@@ -2086,41 +2095,41 @@
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="8">
         <f t="shared" si="3"/>
         <v>53.5</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="8">
         <f t="shared" ref="D36:D38" si="9">$A$1*1.1*0.5</f>
         <v>2.75</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="8">
         <f t="shared" si="4"/>
         <v>147.125</v>
       </c>
-      <c r="F36" s="10">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G36" s="10">
+      <c r="F36" s="9">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G36" s="9">
         <f t="shared" si="6"/>
         <v>44838</v>
       </c>
-      <c r="H36" s="9">
+      <c r="H36" s="8">
         <f t="shared" si="7"/>
         <v>25</v>
       </c>
-      <c r="I36" s="9">
-        <v>10</v>
-      </c>
-      <c r="J36" s="9">
+      <c r="I36" s="8">
+        <v>10</v>
+      </c>
+      <c r="J36" s="8">
         <f t="shared" si="8"/>
         <v>250</v>
       </c>
-      <c r="K36" s="9">
+      <c r="K36" s="8">
         <f t="shared" si="1"/>
         <v>397.125</v>
       </c>
@@ -2131,41 +2140,41 @@
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="9">
+      <c r="B37" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="8">
         <f t="shared" si="3"/>
         <v>53</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="8">
         <f t="shared" si="9"/>
         <v>2.75</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="8">
         <f t="shared" si="4"/>
         <v>145.75</v>
       </c>
-      <c r="F37" s="10">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G37" s="10">
+      <c r="F37" s="9">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G37" s="9">
         <f t="shared" si="6"/>
         <v>44839</v>
       </c>
-      <c r="H37" s="9">
+      <c r="H37" s="8">
         <f t="shared" si="7"/>
         <v>26</v>
       </c>
-      <c r="I37" s="9">
-        <v>10</v>
-      </c>
-      <c r="J37" s="9">
+      <c r="I37" s="8">
+        <v>10</v>
+      </c>
+      <c r="J37" s="8">
         <f t="shared" si="8"/>
         <v>260</v>
       </c>
-      <c r="K37" s="9">
+      <c r="K37" s="8">
         <f t="shared" si="1"/>
         <v>405.75</v>
       </c>
@@ -2176,41 +2185,41 @@
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="9">
+      <c r="B38" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="8">
         <f t="shared" si="3"/>
         <v>52.5</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="8">
         <f t="shared" si="9"/>
         <v>2.75</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="8">
         <f t="shared" si="4"/>
         <v>144.375</v>
       </c>
-      <c r="F38" s="10">
-        <f t="shared" si="5"/>
-        <v>44813</v>
-      </c>
-      <c r="G38" s="10">
+      <c r="F38" s="9">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G38" s="9">
         <f t="shared" si="6"/>
         <v>44840</v>
       </c>
-      <c r="H38" s="9">
+      <c r="H38" s="8">
         <f t="shared" si="7"/>
         <v>27</v>
       </c>
-      <c r="I38" s="9">
-        <v>10</v>
-      </c>
-      <c r="J38" s="9">
+      <c r="I38" s="8">
+        <v>10</v>
+      </c>
+      <c r="J38" s="8">
         <f t="shared" si="8"/>
         <v>270</v>
       </c>
-      <c r="K38" s="9">
+      <c r="K38" s="8">
         <f t="shared" si="1"/>
         <v>414.375</v>
       </c>
@@ -2246,9 +2255,9 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B41" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" s="13">
+        <v>39</v>
+      </c>
+      <c r="C41" s="12">
         <f>SUM(K3:K38)</f>
         <v>15321.75</v>
       </c>
@@ -2264,9 +2273,9 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B42" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="9">
+        <v>46</v>
+      </c>
+      <c r="C42" s="8">
         <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
@@ -2282,9 +2291,9 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B43" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C43" s="9">
+        <v>49</v>
+      </c>
+      <c r="C43" s="8">
         <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
@@ -2299,10 +2308,10 @@
       <c r="L43" s="5"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B44" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" s="12">
+      <c r="B44" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="11">
         <f>MAX(K3:K38)</f>
         <v>529.75</v>
       </c>

--- a/LR3/table_1_5.xlsx
+++ b/LR3/table_1_5.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D8767F-C6E9-4666-9595-4184298D1A76}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B958DFAD-DB32-473F-B616-AD94976018CF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
-    <t xml:space="preserve">Абдуллина </t>
-  </si>
-  <si>
     <t>Акмалов</t>
   </si>
   <si>
@@ -115,12 +112,6 @@
     <t>Шаймарданова</t>
   </si>
   <si>
-    <t xml:space="preserve">Абделазиз </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мохамед </t>
-  </si>
-  <si>
     <t>Хабк</t>
   </si>
   <si>
@@ -173,6 +164,15 @@
   </si>
   <si>
     <t>Фамилия квартиросъёмщика</t>
+  </si>
+  <si>
+    <t>Абделазиз</t>
+  </si>
+  <si>
+    <t>Абдуллина</t>
+  </si>
+  <si>
+    <t>Мохамед</t>
   </si>
 </sst>
 </file>
@@ -229,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -249,6 +249,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -531,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="B31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -559,9 +560,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="6"/>
-      <c r="C1" s="5">
-        <v>5</v>
-      </c>
+      <c r="C1" s="5"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
@@ -573,37 +572,37 @@
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="E2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="L2" s="4"/>
     </row>
@@ -612,7 +611,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C3" s="6">
         <v>70</v>
@@ -654,7 +653,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="C4" s="6">
         <f>C3-0.5</f>
@@ -700,7 +699,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="6">
         <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
@@ -746,7 +745,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="6">
         <f t="shared" si="5"/>
@@ -792,7 +791,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="6">
         <f t="shared" si="5"/>
@@ -838,7 +837,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="6">
         <f t="shared" si="5"/>
@@ -884,7 +883,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="6">
         <f t="shared" si="5"/>
@@ -930,7 +929,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="6">
         <f t="shared" si="5"/>
@@ -976,7 +975,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="6">
         <f t="shared" si="5"/>
@@ -1022,7 +1021,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="6">
         <f t="shared" si="5"/>
@@ -1068,7 +1067,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="6">
         <f t="shared" si="5"/>
@@ -1114,7 +1113,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="6">
         <f t="shared" si="5"/>
@@ -1160,7 +1159,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C15" s="6">
         <f t="shared" si="5"/>
@@ -1206,7 +1205,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" s="6">
         <f t="shared" si="5"/>
@@ -1252,7 +1251,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="6">
         <f t="shared" si="5"/>
@@ -1298,7 +1297,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="6">
         <f t="shared" si="5"/>
@@ -1344,7 +1343,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" s="6">
         <f t="shared" si="5"/>
@@ -1390,7 +1389,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" s="6">
         <f t="shared" si="5"/>
@@ -1436,7 +1435,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="6">
         <f t="shared" si="5"/>
@@ -1482,7 +1481,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="6">
         <f t="shared" si="5"/>
@@ -1528,7 +1527,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" s="6">
         <f t="shared" si="5"/>
@@ -1574,7 +1573,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24" s="6">
         <f t="shared" si="5"/>
@@ -1620,7 +1619,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="6">
         <f t="shared" si="5"/>
@@ -1666,7 +1665,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" s="6">
         <f t="shared" si="5"/>
@@ -1712,7 +1711,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C27" s="6">
         <f t="shared" si="5"/>
@@ -1758,7 +1757,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C28" s="6">
         <f t="shared" si="5"/>
@@ -1804,7 +1803,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C29" s="6">
         <f t="shared" si="5"/>
@@ -1850,7 +1849,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C30" s="6">
         <f t="shared" si="5"/>
@@ -1896,7 +1895,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C31" s="6">
         <f t="shared" si="5"/>
@@ -1942,7 +1941,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C32" s="6">
         <f t="shared" si="5"/>
@@ -1988,7 +1987,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C33" s="6">
         <f t="shared" si="5"/>
@@ -2034,7 +2033,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C34" s="6">
         <f t="shared" si="5"/>
@@ -2080,7 +2079,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C35" s="6">
         <f t="shared" si="5"/>
@@ -2126,7 +2125,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36" s="6">
         <f t="shared" si="5"/>
@@ -2172,7 +2171,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C37" s="6">
         <f t="shared" si="5"/>
@@ -2218,7 +2217,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C38" s="6">
         <f t="shared" si="5"/>
@@ -2275,11 +2274,11 @@
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C40" s="6">
-        <f>FLOOR(SUM(K4:K39),1)</f>
-        <v>14936</v>
+        <f>FLOOR(SUM(K3:K38),1)</f>
+        <v>15321</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -2293,11 +2292,11 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B41" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" s="6">
-        <f>AVERAGE(C4:C39)</f>
-        <v>61</v>
+        <v>42</v>
+      </c>
+      <c r="C41" s="11">
+        <f>AVERAGE(C3:C38)</f>
+        <v>61.25</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -2311,10 +2310,10 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B42" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C42" s="6">
-        <f>MAX(H4:H39)</f>
+        <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
       <c r="D42" s="4"/>
@@ -2329,10 +2328,10 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B43" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C43" s="6">
-        <f>MAX(K4:K39)</f>
+        <f>MAX(K3:K38)</f>
         <v>529.75</v>
       </c>
       <c r="D43" s="4"/>

--- a/LR3/table_1_5.xlsx
+++ b/LR3/table_1_5.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABDE1BE-8EA3-4719-A054-6E14183D0A2D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>№ квартиры</t>
   </si>
@@ -73,9 +74,6 @@
     <t>Маслов</t>
   </si>
   <si>
-    <t>Махмутов</t>
-  </si>
-  <si>
     <t>Мунирова</t>
   </si>
   <si>
@@ -136,13 +134,46 @@
     <t>Куропаткин 16</t>
   </si>
   <si>
-    <t>Куропаткин 17</t>
+    <t>Алимжанов</t>
+  </si>
+  <si>
+    <t>Балашов</t>
+  </si>
+  <si>
+    <t>Беккер</t>
+  </si>
+  <si>
+    <t>Вохмянин</t>
+  </si>
+  <si>
+    <t>Дабеев</t>
+  </si>
+  <si>
+    <t>Дубков</t>
+  </si>
+  <si>
+    <t>Еранов</t>
+  </si>
+  <si>
+    <t>Занина</t>
+  </si>
+  <si>
+    <t>Коковкина</t>
+  </si>
+  <si>
+    <t>Колбасова</t>
+  </si>
+  <si>
+    <t>Лексин</t>
+  </si>
+  <si>
+    <t>Маххмутов</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -289,6 +320,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -324,6 +372,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -499,32 +564,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="1"/>
-    <col min="6" max="6" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="13.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="1"/>
+    <col min="6" max="6" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -559,13 +624,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="str">
-        <f ca="1">Лист1!B3</f>
-        <v>Балашов</v>
+      <c r="B3" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -600,14 +664,13 @@
         <v>385</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="str">
-        <f ca="1">Лист1!B4</f>
-        <v>Беккер</v>
+      <c r="B4" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C4" s="1">
         <f>C3-0.5</f>
@@ -646,14 +709,13 @@
         <v>382.25</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <f t="shared" ref="A5:A38" si="3">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="str">
-        <f ca="1">Лист1!B5</f>
-        <v>Вохмянин</v>
+      <c r="B5" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C38" si="4">C4-0.5</f>
@@ -692,14 +754,13 @@
         <v>379.5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="str">
-        <f ca="1">Лист1!B6</f>
-        <v>Дабеев</v>
+      <c r="B6" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="4"/>
@@ -738,14 +799,13 @@
         <v>376.75</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="str">
-        <f ca="1">Лист1!B7</f>
-        <v>Дубков</v>
+      <c r="B7" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="4"/>
@@ -784,14 +844,13 @@
         <v>374</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="str">
-        <f ca="1">Лист1!B8</f>
-        <v>Еранов</v>
+      <c r="B8" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="4"/>
@@ -830,14 +889,13 @@
         <v>371.25</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="str">
-        <f ca="1">Лист1!B9</f>
-        <v>Занина</v>
+      <c r="B9" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="4"/>
@@ -876,14 +934,13 @@
         <v>368.5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="str">
-        <f ca="1">Лист1!B10</f>
-        <v>Коковкина</v>
+      <c r="B10" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="4"/>
@@ -922,14 +979,13 @@
         <v>365.75</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="str">
-        <f ca="1">Лист1!B11</f>
-        <v>Колбасова</v>
+      <c r="B11" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="4"/>
@@ -968,14 +1024,13 @@
         <v>363</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="str">
-        <f ca="1">Лист1!B12</f>
-        <v xml:space="preserve">Лексин </v>
+      <c r="B12" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="4"/>
@@ -1014,7 +1069,7 @@
         <v>370.25</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -1059,7 +1114,7 @@
         <v>377.5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -1104,7 +1159,7 @@
         <v>384.75</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -1149,868 +1204,868 @@
         <v>392</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="4"/>
+        <v>63.5</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="5"/>
+        <v>5.5</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>349.25</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="7"/>
+        <v>44818</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="2"/>
+        <v>399.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="1">
-        <f t="shared" si="4"/>
-        <v>63.5</v>
-      </c>
-      <c r="D16" s="1">
-        <f t="shared" si="5"/>
-        <v>5.5</v>
-      </c>
-      <c r="E16" s="1">
-        <f t="shared" si="0"/>
-        <v>349.25</v>
-      </c>
-      <c r="F16" s="4">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G16" s="4">
-        <f t="shared" si="7"/>
-        <v>44818</v>
-      </c>
-      <c r="H16" s="1">
-        <f t="shared" si="8"/>
+      <c r="C17" s="1">
+        <f t="shared" si="4"/>
+        <v>63</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="5"/>
+        <v>5.5</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="0"/>
+        <v>346.5</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="7"/>
+        <v>44819</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="2"/>
+        <v>406.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="4"/>
+        <v>62.5</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="5"/>
+        <v>5.5</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="0"/>
+        <v>343.75</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="7"/>
+        <v>44820</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="2"/>
+        <v>413.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="5"/>
+        <v>5.5</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="0"/>
+        <v>341</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="7"/>
+        <v>44821</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="2"/>
+        <v>421</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="4"/>
+        <v>61.5</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="5"/>
+        <v>5.5</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="0"/>
+        <v>338.25</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="7"/>
+        <v>44822</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="2"/>
+        <v>428.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="5"/>
+        <v>5.5</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="0"/>
+        <v>335.5</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="7"/>
+        <v>44823</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="2"/>
+        <v>435.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" si="4"/>
+        <v>60.5</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="5"/>
+        <v>5.5</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="0"/>
+        <v>332.75</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="7"/>
+        <v>44824</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" si="2"/>
+        <v>442.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I16" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J16" s="1">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="K16" s="1">
-        <f t="shared" si="2"/>
-        <v>399.25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
-        <f t="shared" si="3"/>
+      <c r="C23" s="1">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="5"/>
+        <v>5.5</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="0"/>
+        <v>330</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="7"/>
+        <v>44825</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="2"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" si="4"/>
+        <v>59.5</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="5"/>
+        <v>5.5</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="0"/>
+        <v>327.25</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="7"/>
+        <v>44826</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" si="2"/>
+        <v>457.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="5"/>
+        <v>5.5</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="0"/>
+        <v>324.5</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="7"/>
+        <v>44827</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" si="2"/>
+        <v>464.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="4"/>
+        <v>58.5</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="5"/>
+        <v>5.5</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="0"/>
+        <v>321.75</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" si="7"/>
+        <v>44828</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="I26" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="2"/>
+        <v>471.75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="5"/>
+        <v>5.5</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="0"/>
+        <v>319</v>
+      </c>
+      <c r="F27" s="4">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G27" s="4">
+        <f t="shared" si="7"/>
+        <v>44829</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" si="2"/>
+        <v>479</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" si="4"/>
+        <v>57.5</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="5"/>
+        <v>5.5</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="0"/>
+        <v>316.25</v>
+      </c>
+      <c r="F28" s="4">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G28" s="4">
+        <f t="shared" si="7"/>
+        <v>44830</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" si="1"/>
+        <v>170</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="2"/>
+        <v>486.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="5"/>
+        <v>5.5</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="0"/>
+        <v>313.5</v>
+      </c>
+      <c r="F29" s="4">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G29" s="4">
+        <f t="shared" si="7"/>
+        <v>44831</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" si="2"/>
+        <v>493.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" si="4"/>
+        <v>56.5</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="5"/>
+        <v>5.5</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="0"/>
+        <v>310.75</v>
+      </c>
+      <c r="F30" s="4">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G30" s="4">
+        <f t="shared" si="7"/>
+        <v>44832</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" si="1"/>
+        <v>190</v>
+      </c>
+      <c r="K30" s="1">
+        <f t="shared" si="2"/>
+        <v>500.75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="5"/>
+        <v>5.5</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="0"/>
+        <v>308</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" si="7"/>
+        <v>44833</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
-      <c r="C17" s="1">
-        <f t="shared" si="4"/>
-        <v>63</v>
-      </c>
-      <c r="D17" s="1">
-        <f t="shared" si="5"/>
-        <v>5.5</v>
-      </c>
-      <c r="E17" s="1">
-        <f t="shared" si="0"/>
-        <v>346.5</v>
-      </c>
-      <c r="F17" s="4">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G17" s="4">
-        <f t="shared" si="7"/>
-        <v>44819</v>
-      </c>
-      <c r="H17" s="1">
-        <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="I17" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J17" s="1">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="K17" s="1">
-        <f t="shared" si="2"/>
-        <v>406.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="I31" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="K31" s="1">
+        <f t="shared" si="2"/>
+        <v>508</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="1">
+        <f t="shared" si="4"/>
+        <v>55.5</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="5"/>
+        <v>5.5</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="0"/>
+        <v>305.25</v>
+      </c>
+      <c r="F32" s="4">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G32" s="4">
+        <f t="shared" si="7"/>
+        <v>44834</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="C18" s="1">
-        <f t="shared" si="4"/>
-        <v>62.5</v>
-      </c>
-      <c r="D18" s="1">
-        <f t="shared" si="5"/>
-        <v>5.5</v>
-      </c>
-      <c r="E18" s="1">
-        <f t="shared" si="0"/>
-        <v>343.75</v>
-      </c>
-      <c r="F18" s="4">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G18" s="4">
-        <f t="shared" si="7"/>
-        <v>44820</v>
-      </c>
-      <c r="H18" s="1">
-        <f t="shared" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="I18" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J18" s="1">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="K18" s="1">
-        <f t="shared" si="2"/>
-        <v>413.75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="I32" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J32" s="1">
+        <f t="shared" si="1"/>
+        <v>210</v>
+      </c>
+      <c r="K32" s="1">
+        <f t="shared" si="2"/>
+        <v>515.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="5"/>
+        <v>5.5</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="0"/>
+        <v>302.5</v>
+      </c>
+      <c r="F33" s="4">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G33" s="4">
+        <f t="shared" si="7"/>
+        <v>44835</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
-      <c r="C19" s="1">
-        <f t="shared" si="4"/>
-        <v>62</v>
-      </c>
-      <c r="D19" s="1">
-        <f t="shared" si="5"/>
-        <v>5.5</v>
-      </c>
-      <c r="E19" s="1">
-        <f t="shared" si="0"/>
-        <v>341</v>
-      </c>
-      <c r="F19" s="4">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G19" s="4">
-        <f t="shared" si="7"/>
-        <v>44821</v>
-      </c>
-      <c r="H19" s="1">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="I19" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J19" s="1">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="K19" s="1">
-        <f t="shared" si="2"/>
-        <v>421</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="I33" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J33" s="1">
+        <f t="shared" si="1"/>
+        <v>220</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" si="2"/>
+        <v>522.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="1">
+        <f t="shared" si="4"/>
+        <v>54.5</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="5"/>
+        <v>5.5</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="0"/>
+        <v>299.75</v>
+      </c>
+      <c r="F34" s="4">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G34" s="4">
+        <f t="shared" si="7"/>
+        <v>44836</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
-      <c r="C20" s="1">
-        <f t="shared" si="4"/>
-        <v>61.5</v>
-      </c>
-      <c r="D20" s="1">
-        <f t="shared" si="5"/>
-        <v>5.5</v>
-      </c>
-      <c r="E20" s="1">
-        <f t="shared" si="0"/>
-        <v>338.25</v>
-      </c>
-      <c r="F20" s="4">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G20" s="4">
-        <f t="shared" si="7"/>
-        <v>44822</v>
-      </c>
-      <c r="H20" s="1">
-        <f t="shared" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="I20" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J20" s="1">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="K20" s="1">
-        <f t="shared" si="2"/>
-        <v>428.25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
-        <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="1">
-        <f t="shared" si="4"/>
-        <v>61</v>
-      </c>
-      <c r="D21" s="1">
-        <f t="shared" si="5"/>
-        <v>5.5</v>
-      </c>
-      <c r="E21" s="1">
-        <f t="shared" si="0"/>
-        <v>335.5</v>
-      </c>
-      <c r="F21" s="4">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G21" s="4">
-        <f t="shared" si="7"/>
-        <v>44823</v>
-      </c>
-      <c r="H21" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="I21" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J21" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="K21" s="1">
-        <f t="shared" si="2"/>
-        <v>435.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="1">
-        <f t="shared" si="4"/>
-        <v>60.5</v>
-      </c>
-      <c r="D22" s="1">
-        <f t="shared" si="5"/>
-        <v>5.5</v>
-      </c>
-      <c r="E22" s="1">
-        <f t="shared" si="0"/>
-        <v>332.75</v>
-      </c>
-      <c r="F22" s="4">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G22" s="4">
-        <f t="shared" si="7"/>
-        <v>44824</v>
-      </c>
-      <c r="H22" s="1">
-        <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="I22" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J22" s="1">
-        <f t="shared" si="1"/>
-        <v>110</v>
-      </c>
-      <c r="K22" s="1">
-        <f t="shared" si="2"/>
-        <v>442.75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
-        <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="1">
-        <f t="shared" si="4"/>
-        <v>60</v>
-      </c>
-      <c r="D23" s="1">
-        <f t="shared" si="5"/>
-        <v>5.5</v>
-      </c>
-      <c r="E23" s="1">
-        <f t="shared" si="0"/>
-        <v>330</v>
-      </c>
-      <c r="F23" s="4">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G23" s="4">
-        <f t="shared" si="7"/>
-        <v>44825</v>
-      </c>
-      <c r="H23" s="1">
-        <f t="shared" si="8"/>
-        <v>12</v>
-      </c>
-      <c r="I23" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J23" s="1">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="K23" s="1">
-        <f t="shared" si="2"/>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="1">
-        <f t="shared" si="4"/>
-        <v>59.5</v>
-      </c>
-      <c r="D24" s="1">
-        <f t="shared" si="5"/>
-        <v>5.5</v>
-      </c>
-      <c r="E24" s="1">
-        <f t="shared" si="0"/>
-        <v>327.25</v>
-      </c>
-      <c r="F24" s="4">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G24" s="4">
-        <f t="shared" si="7"/>
-        <v>44826</v>
-      </c>
-      <c r="H24" s="1">
-        <f t="shared" si="8"/>
-        <v>13</v>
-      </c>
-      <c r="I24" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J24" s="1">
-        <f t="shared" si="1"/>
-        <v>130</v>
-      </c>
-      <c r="K24" s="1">
-        <f t="shared" si="2"/>
-        <v>457.25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="6">
-        <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="1">
-        <f t="shared" si="4"/>
-        <v>59</v>
-      </c>
-      <c r="D25" s="1">
-        <f t="shared" si="5"/>
-        <v>5.5</v>
-      </c>
-      <c r="E25" s="1">
-        <f t="shared" si="0"/>
-        <v>324.5</v>
-      </c>
-      <c r="F25" s="4">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G25" s="4">
-        <f t="shared" si="7"/>
-        <v>44827</v>
-      </c>
-      <c r="H25" s="1">
-        <f t="shared" si="8"/>
-        <v>14</v>
-      </c>
-      <c r="I25" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J25" s="1">
-        <f t="shared" si="1"/>
-        <v>140</v>
-      </c>
-      <c r="K25" s="1">
-        <f t="shared" si="2"/>
-        <v>464.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="6">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="1">
-        <f t="shared" si="4"/>
-        <v>58.5</v>
-      </c>
-      <c r="D26" s="1">
-        <f t="shared" si="5"/>
-        <v>5.5</v>
-      </c>
-      <c r="E26" s="1">
-        <f t="shared" si="0"/>
-        <v>321.75</v>
-      </c>
-      <c r="F26" s="4">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G26" s="4">
-        <f t="shared" si="7"/>
-        <v>44828</v>
-      </c>
-      <c r="H26" s="1">
-        <f t="shared" si="8"/>
-        <v>15</v>
-      </c>
-      <c r="I26" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J26" s="1">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="K26" s="1">
-        <f t="shared" si="2"/>
-        <v>471.75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="6">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="1">
-        <f t="shared" si="4"/>
-        <v>58</v>
-      </c>
-      <c r="D27" s="1">
-        <f t="shared" si="5"/>
-        <v>5.5</v>
-      </c>
-      <c r="E27" s="1">
-        <f t="shared" si="0"/>
-        <v>319</v>
-      </c>
-      <c r="F27" s="4">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G27" s="4">
-        <f t="shared" si="7"/>
-        <v>44829</v>
-      </c>
-      <c r="H27" s="1">
-        <f t="shared" si="8"/>
-        <v>16</v>
-      </c>
-      <c r="I27" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J27" s="1">
-        <f t="shared" si="1"/>
-        <v>160</v>
-      </c>
-      <c r="K27" s="1">
-        <f t="shared" si="2"/>
-        <v>479</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="6">
-        <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="1">
-        <f t="shared" si="4"/>
-        <v>57.5</v>
-      </c>
-      <c r="D28" s="1">
-        <f t="shared" si="5"/>
-        <v>5.5</v>
-      </c>
-      <c r="E28" s="1">
-        <f t="shared" si="0"/>
-        <v>316.25</v>
-      </c>
-      <c r="F28" s="4">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G28" s="4">
-        <f t="shared" si="7"/>
-        <v>44830</v>
-      </c>
-      <c r="H28" s="1">
-        <f t="shared" si="8"/>
-        <v>17</v>
-      </c>
-      <c r="I28" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J28" s="1">
-        <f t="shared" si="1"/>
-        <v>170</v>
-      </c>
-      <c r="K28" s="1">
-        <f t="shared" si="2"/>
-        <v>486.25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="6">
-        <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="1">
-        <f t="shared" si="4"/>
-        <v>57</v>
-      </c>
-      <c r="D29" s="1">
-        <f t="shared" si="5"/>
-        <v>5.5</v>
-      </c>
-      <c r="E29" s="1">
-        <f t="shared" si="0"/>
-        <v>313.5</v>
-      </c>
-      <c r="F29" s="4">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G29" s="4">
-        <f t="shared" si="7"/>
-        <v>44831</v>
-      </c>
-      <c r="H29" s="1">
-        <f t="shared" si="8"/>
-        <v>18</v>
-      </c>
-      <c r="I29" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J29" s="1">
-        <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="K29" s="1">
-        <f t="shared" si="2"/>
-        <v>493.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="6">
-        <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="1">
-        <f t="shared" si="4"/>
-        <v>56.5</v>
-      </c>
-      <c r="D30" s="1">
-        <f t="shared" si="5"/>
-        <v>5.5</v>
-      </c>
-      <c r="E30" s="1">
-        <f t="shared" si="0"/>
-        <v>310.75</v>
-      </c>
-      <c r="F30" s="4">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G30" s="4">
-        <f t="shared" si="7"/>
-        <v>44832</v>
-      </c>
-      <c r="H30" s="1">
-        <f t="shared" si="8"/>
-        <v>19</v>
-      </c>
-      <c r="I30" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J30" s="1">
-        <f t="shared" si="1"/>
-        <v>190</v>
-      </c>
-      <c r="K30" s="1">
-        <f t="shared" si="2"/>
-        <v>500.75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="6">
-        <f t="shared" si="3"/>
-        <v>29</v>
-      </c>
-      <c r="B31" s="1" t="s">
+      <c r="I34" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J34" s="1">
+        <f t="shared" si="1"/>
+        <v>230</v>
+      </c>
+      <c r="K34" s="1">
+        <f t="shared" si="2"/>
+        <v>529.75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="C31" s="1">
-        <f t="shared" si="4"/>
-        <v>56</v>
-      </c>
-      <c r="D31" s="1">
-        <f t="shared" si="5"/>
-        <v>5.5</v>
-      </c>
-      <c r="E31" s="1">
-        <f t="shared" si="0"/>
-        <v>308</v>
-      </c>
-      <c r="F31" s="4">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G31" s="4">
-        <f t="shared" si="7"/>
-        <v>44833</v>
-      </c>
-      <c r="H31" s="1">
-        <f t="shared" si="8"/>
-        <v>20</v>
-      </c>
-      <c r="I31" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J31" s="1">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="K31" s="1">
-        <f t="shared" si="2"/>
-        <v>508</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="6">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="1">
-        <f t="shared" si="4"/>
-        <v>55.5</v>
-      </c>
-      <c r="D32" s="1">
-        <f t="shared" si="5"/>
-        <v>5.5</v>
-      </c>
-      <c r="E32" s="1">
-        <f t="shared" si="0"/>
-        <v>305.25</v>
-      </c>
-      <c r="F32" s="4">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G32" s="4">
-        <f t="shared" si="7"/>
-        <v>44834</v>
-      </c>
-      <c r="H32" s="1">
-        <f t="shared" si="8"/>
-        <v>21</v>
-      </c>
-      <c r="I32" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J32" s="1">
-        <f t="shared" si="1"/>
-        <v>210</v>
-      </c>
-      <c r="K32" s="1">
-        <f t="shared" si="2"/>
-        <v>515.25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="6">
-        <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="B33" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C33" s="1">
-        <f t="shared" si="4"/>
-        <v>55</v>
-      </c>
-      <c r="D33" s="1">
-        <f t="shared" si="5"/>
-        <v>5.5</v>
-      </c>
-      <c r="E33" s="1">
-        <f t="shared" si="0"/>
-        <v>302.5</v>
-      </c>
-      <c r="F33" s="4">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G33" s="4">
-        <f t="shared" si="7"/>
-        <v>44835</v>
-      </c>
-      <c r="H33" s="1">
-        <f t="shared" si="8"/>
-        <v>22</v>
-      </c>
-      <c r="I33" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J33" s="1">
-        <f t="shared" si="1"/>
-        <v>220</v>
-      </c>
-      <c r="K33" s="1">
-        <f t="shared" si="2"/>
-        <v>522.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="6">
-        <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="1">
-        <f t="shared" si="4"/>
-        <v>54.5</v>
-      </c>
-      <c r="D34" s="1">
-        <f t="shared" si="5"/>
-        <v>5.5</v>
-      </c>
-      <c r="E34" s="1">
-        <f t="shared" si="0"/>
-        <v>299.75</v>
-      </c>
-      <c r="F34" s="4">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G34" s="4">
-        <f t="shared" si="7"/>
-        <v>44836</v>
-      </c>
-      <c r="H34" s="1">
-        <f t="shared" si="8"/>
-        <v>23</v>
-      </c>
-      <c r="I34" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J34" s="1">
-        <f t="shared" si="1"/>
-        <v>230</v>
-      </c>
-      <c r="K34" s="1">
-        <f t="shared" si="2"/>
-        <v>529.75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="6">
-        <f t="shared" si="3"/>
-        <v>33</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="4"/>
@@ -2049,13 +2104,13 @@
         <v>388.5</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="4"/>
@@ -2094,13 +2149,13 @@
         <v>397.125</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="4"/>
@@ -2139,13 +2194,13 @@
         <v>405.75</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="4"/>
@@ -2184,7 +2239,7 @@
         <v>414.375</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
         <v>8</v>
       </c>
@@ -2193,7 +2248,7 @@
         <v>15321</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
         <v>13</v>
       </c>
@@ -2202,7 +2257,7 @@
         <v>61.25</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
         <v>7</v>
       </c>
@@ -2211,7 +2266,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>15</v>
       </c>

--- a/LR3/table_1_5.xlsx
+++ b/LR3/table_1_5.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABDE1BE-8EA3-4719-A054-6E14183D0A2D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAAD14F-C29B-47BC-89A3-5AB42D9FF3E5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,6 +74,9 @@
     <t>Маслов</t>
   </si>
   <si>
+    <t>Махмутов</t>
+  </si>
+  <si>
     <t>Мунирова</t>
   </si>
   <si>
@@ -165,9 +168,6 @@
   </si>
   <si>
     <t>Лексин</t>
-  </si>
-  <si>
-    <t>Маххмутов</t>
   </si>
 </sst>
 </file>
@@ -568,7 +568,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -629,7 +629,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -670,7 +670,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1">
         <f>C3-0.5</f>
@@ -715,7 +715,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C38" si="4">C4-0.5</f>
@@ -760,7 +760,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="4"/>
@@ -805,7 +805,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="4"/>
@@ -850,7 +850,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="4"/>
@@ -895,7 +895,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="4"/>
@@ -940,7 +940,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="4"/>
@@ -985,7 +985,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="4"/>
@@ -1030,7 +1030,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="4"/>
@@ -1210,7 +1210,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="4"/>
@@ -1255,7 +1255,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="4"/>
@@ -1300,7 +1300,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="4"/>
@@ -1345,7 +1345,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="4"/>
@@ -1390,7 +1390,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="4"/>
@@ -1435,7 +1435,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="4"/>
@@ -1480,7 +1480,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="4"/>
@@ -1570,7 +1570,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="4"/>
@@ -1615,7 +1615,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="4"/>
@@ -1660,7 +1660,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="4"/>
@@ -1705,7 +1705,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="4"/>
@@ -1750,7 +1750,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="4"/>
@@ -1795,7 +1795,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="4"/>
@@ -1840,7 +1840,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="4"/>
@@ -1885,7 +1885,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="4"/>
@@ -1930,7 +1930,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="4"/>
@@ -1975,7 +1975,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="4"/>
@@ -2020,7 +2020,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="4"/>
@@ -2065,7 +2065,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="4"/>
@@ -2110,7 +2110,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="4"/>
@@ -2155,7 +2155,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="4"/>
@@ -2200,7 +2200,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="4"/>

--- a/LR3/table_1_5.xlsx
+++ b/LR3/table_1_5.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAAD14F-C29B-47BC-89A3-5AB42D9FF3E5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF98BD6-885D-44AB-9B07-A8B72917095F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -140,9 +140,6 @@
     <t>Алимжанов</t>
   </si>
   <si>
-    <t>Балашов</t>
-  </si>
-  <si>
     <t>Беккер</t>
   </si>
   <si>
@@ -168,6 +165,9 @@
   </si>
   <si>
     <t>Лексин</t>
+  </si>
+  <si>
+    <t>Максим</t>
   </si>
 </sst>
 </file>
@@ -568,7 +568,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -629,7 +629,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -670,7 +670,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="1">
         <f>C3-0.5</f>
@@ -715,7 +715,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C38" si="4">C4-0.5</f>
@@ -760,7 +760,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="4"/>
@@ -805,7 +805,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="4"/>
@@ -850,7 +850,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="4"/>
@@ -895,7 +895,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="4"/>
@@ -940,7 +940,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="4"/>
@@ -985,7 +985,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="4"/>
@@ -1030,7 +1030,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="4"/>
@@ -1075,7 +1075,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="4"/>
@@ -1120,7 +1120,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="4"/>
@@ -1165,7 +1165,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="4"/>
@@ -1210,7 +1210,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="4"/>
@@ -1255,7 +1255,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="4"/>
@@ -1390,7 +1390,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="4"/>
@@ -1435,7 +1435,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="4"/>
@@ -1480,7 +1480,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="4"/>

--- a/LR3/table_1_5.xlsx
+++ b/LR3/table_1_5.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF98BD6-885D-44AB-9B07-A8B72917095F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E134B633-8EC1-4EB8-B959-6D396BC8AE53}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -140,6 +140,9 @@
     <t>Алимжанов</t>
   </si>
   <si>
+    <t>Балашов</t>
+  </si>
+  <si>
     <t>Беккер</t>
   </si>
   <si>
@@ -165,9 +168,6 @@
   </si>
   <si>
     <t>Лексин</t>
-  </si>
-  <si>
-    <t>Максим</t>
   </si>
 </sst>
 </file>
@@ -568,7 +568,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -629,7 +629,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -670,7 +670,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1">
         <f>C3-0.5</f>
@@ -715,7 +715,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C38" si="4">C4-0.5</f>
@@ -760,7 +760,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="4"/>
@@ -850,7 +850,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="4"/>
@@ -940,7 +940,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="4"/>
@@ -985,7 +985,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="4"/>
@@ -1210,7 +1210,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="4"/>
@@ -1390,7 +1390,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="4"/>
@@ -1480,7 +1480,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="4"/>

--- a/LR3/table_1_5.xlsx
+++ b/LR3/table_1_5.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E134B633-8EC1-4EB8-B959-6D396BC8AE53}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D799D262-015B-4126-9D12-E7524CFA87ED}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -567,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2239,7 +2239,7 @@
         <v>414.375</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
         <v>8</v>
       </c>

--- a/LR3/table_1_5.xlsx
+++ b/LR3/table_1_5.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D799D262-015B-4126-9D12-E7524CFA87ED}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165DD987-A8A2-4E54-9DB2-BF611E174ECA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -174,13 +174,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="12"/>
@@ -210,23 +217,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -567,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -628,7 +638,7 @@
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C3" s="1">
@@ -669,7 +679,7 @@
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C4" s="1">
@@ -714,7 +724,7 @@
         <f t="shared" ref="A5:A38" si="3">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C5" s="1">
@@ -759,7 +769,7 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="8" t="s">
         <v>43</v>
       </c>
       <c r="C6" s="1">
@@ -804,7 +814,7 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="1">
@@ -849,7 +859,7 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C8" s="1">
@@ -894,7 +904,7 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="1">
@@ -939,7 +949,7 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C10" s="1">
@@ -984,7 +994,7 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C11" s="1">
@@ -1029,7 +1039,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="1">
@@ -1074,7 +1084,7 @@
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="1">
@@ -1119,7 +1129,7 @@
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="1">
@@ -1164,7 +1174,7 @@
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="1">
@@ -1209,7 +1219,7 @@
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C16" s="1">
@@ -1254,7 +1264,7 @@
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="1">
@@ -1299,7 +1309,7 @@
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="1">
@@ -1344,7 +1354,7 @@
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="1">
@@ -1389,7 +1399,7 @@
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C20" s="1">
@@ -1434,7 +1444,7 @@
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C21" s="1">
@@ -1479,7 +1489,7 @@
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C22" s="1">
@@ -1524,7 +1534,7 @@
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="1">
@@ -1569,7 +1579,7 @@
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="1">
@@ -1614,7 +1624,7 @@
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="1">
@@ -1659,7 +1669,7 @@
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C26" s="1">
@@ -1704,7 +1714,7 @@
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="1">
@@ -1749,7 +1759,7 @@
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C28" s="1">
@@ -1794,7 +1804,7 @@
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C29" s="1">
@@ -1839,7 +1849,7 @@
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C30" s="1">
@@ -1884,7 +1894,7 @@
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C31" s="1">
@@ -1929,7 +1939,7 @@
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C32" s="1">
@@ -1974,7 +1984,7 @@
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C33" s="1">
@@ -2019,7 +2029,7 @@
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C34" s="1">
@@ -2064,7 +2074,7 @@
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C35" s="1">
@@ -2109,7 +2119,7 @@
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C36" s="1">
@@ -2154,7 +2164,7 @@
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C37" s="1">
@@ -2199,7 +2209,7 @@
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C38" s="1">
